--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_22_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_22_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1989419.122305404</v>
+        <v>2015658.130032761</v>
       </c>
     </row>
     <row r="7">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>151.8908748260695</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>110.0876308424914</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>189.0873996000162</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>232.4925990208804</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>29.48590664768122</v>
       </c>
       <c r="W11" t="n">
         <v>330.6700397138013</v>
@@ -1469,7 +1469,7 @@
         <v>75.4412605701834</v>
       </c>
       <c r="I12" t="n">
-        <v>5.860876825911589</v>
+        <v>5.860876825911575</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1511,10 +1511,10 @@
         <v>214.2296581458136</v>
       </c>
       <c r="W12" t="n">
-        <v>233.1240541573079</v>
+        <v>233.1240541573093</v>
       </c>
       <c r="X12" t="n">
-        <v>187.2020561998663</v>
+        <v>187.2020561998658</v>
       </c>
       <c r="Y12" t="n">
         <v>187.1117667736927</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>148.6758920950162</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>103.422923944485</v>
       </c>
       <c r="E13" t="n">
-        <v>10.53585571430329</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>126.8501190193196</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>147.838156477693</v>
       </c>
       <c r="H13" t="n">
-        <v>129.5917688505848</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.30768278159312</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>87.59476131533638</v>
+        <v>87.59476131533637</v>
       </c>
       <c r="S13" t="n">
         <v>177.8775730105926</v>
       </c>
       <c r="T13" t="n">
-        <v>202.6156593131931</v>
+        <v>202.615659313193</v>
       </c>
       <c r="U13" t="n">
         <v>267.6618152323072</v>
@@ -1609,16 +1609,16 @@
         <v>364.1629126598689</v>
       </c>
       <c r="C14" t="n">
-        <v>346.7019627673959</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>156.1636717745303</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>388.3051167380997</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>110.0876308424914</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>189.0873996000162</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>232.4925990208804</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>309.1813294665232</v>
       </c>
       <c r="W14" t="n">
         <v>330.6700397138013</v>
@@ -1675,7 +1675,7 @@
         <v>351.1601716748573</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.6670096524419</v>
+        <v>239.7286294113734</v>
       </c>
     </row>
     <row r="15">
@@ -1697,16 +1697,16 @@
         <v>139.0741514517893</v>
       </c>
       <c r="F15" t="n">
-        <v>126.4982833897722</v>
+        <v>126.4982833897734</v>
       </c>
       <c r="G15" t="n">
         <v>116.8857116550141</v>
       </c>
       <c r="H15" t="n">
-        <v>75.44126057018343</v>
+        <v>75.4412605701834</v>
       </c>
       <c r="I15" t="n">
-        <v>5.860876825911596</v>
+        <v>5.860876825911575</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>173.98836325387</v>
       </c>
       <c r="U15" t="n">
-        <v>207.2463164652197</v>
+        <v>207.2463164652194</v>
       </c>
       <c r="V15" t="n">
         <v>214.2296581458136</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>130.0445440146007</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>127.8630336429575</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>56.86506362702942</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>147.838156477693</v>
       </c>
       <c r="H16" t="n">
-        <v>129.5917688505848</v>
+        <v>129.5917688505847</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>89.3076827815931</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>78.20661424869068</v>
+        <v>87.59476131533637</v>
       </c>
       <c r="S16" t="n">
-        <v>177.8775730105926</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>202.6156593131931</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>267.6618152323072</v>
@@ -1830,7 +1830,7 @@
         <v>267.9520693329793</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>207.1387263854255</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>336.1121126170713</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>393.2052474697179</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>284.7874798427652</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>55.94721600258856</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>110.0876308424914</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>189.0873996000162</v>
       </c>
       <c r="U17" t="n">
-        <v>232.4925990208804</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>183.6956236868983</v>
+        <v>309.1813294665232</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>351.1601716748573</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.6670096524419</v>
+        <v>259.0748969486218</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>147.9622546462557</v>
       </c>
       <c r="C18" t="n">
-        <v>154.1375699847043</v>
+        <v>154.1375699847041</v>
       </c>
       <c r="D18" t="n">
         <v>128.8741365610271</v>
@@ -1940,10 +1940,10 @@
         <v>116.8857116550141</v>
       </c>
       <c r="H18" t="n">
-        <v>75.44126057018343</v>
+        <v>75.4412605701834</v>
       </c>
       <c r="I18" t="n">
-        <v>5.860876825911603</v>
+        <v>5.860876825911575</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>233.1240541573079</v>
       </c>
       <c r="X18" t="n">
-        <v>187.2020561998658</v>
+        <v>187.2020561998672</v>
       </c>
       <c r="Y18" t="n">
         <v>187.1117667736927</v>
@@ -2004,13 +2004,13 @@
         <v>161.2610511783256</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>148.6758920950162</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>41.51503775803285</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>129.5917688505848</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>87.59476131533637</v>
       </c>
       <c r="S19" t="n">
-        <v>177.8775730105926</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>202.6156593131931</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>267.6618152323072</v>
       </c>
       <c r="V19" t="n">
-        <v>201.2811286627143</v>
+        <v>233.5667143202163</v>
       </c>
       <c r="W19" t="n">
         <v>267.9520693329793</v>
@@ -2070,7 +2070,7 @@
         <v>207.1387263854255</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>200.0137243484831</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>364.1629126598689</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>336.1121126170713</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>363.3594410686501</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>388.3051167380997</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>393.2052474697179</v>
       </c>
       <c r="H20" t="n">
-        <v>284.7874798427652</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>55.94721600258856</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>110.0876308424914</v>
       </c>
       <c r="T20" t="n">
-        <v>189.0873996000162</v>
+        <v>172.9662242515458</v>
       </c>
       <c r="U20" t="n">
-        <v>232.4925990208804</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>309.1813294665232</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>330.6700397138013</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>59.92276651320418</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>367.6670096524419</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>116.8857116550141</v>
       </c>
       <c r="H21" t="n">
-        <v>75.44126057018343</v>
+        <v>75.4412605701834</v>
       </c>
       <c r="I21" t="n">
-        <v>5.8608768259116</v>
+        <v>5.860876825911575</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>118.0643386049763</v>
       </c>
       <c r="T21" t="n">
-        <v>173.9883632538702</v>
+        <v>173.98836325387</v>
       </c>
       <c r="U21" t="n">
-        <v>207.2463164652199</v>
+        <v>207.2463164652194</v>
       </c>
       <c r="V21" t="n">
         <v>214.2296581458136</v>
       </c>
       <c r="W21" t="n">
-        <v>233.1240541573079</v>
+        <v>233.1240541573093</v>
       </c>
       <c r="X21" t="n">
         <v>187.2020561998658</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>161.2610511783256</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>148.6758920950162</v>
       </c>
       <c r="D22" t="n">
-        <v>1.987878236318142</v>
+        <v>130.0445440146007</v>
       </c>
       <c r="E22" t="n">
         <v>127.8630336429575</v>
@@ -2256,10 +2256,10 @@
         <v>147.838156477693</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>129.5917688505847</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>89.3076827815931</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>87.59476131533638</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>177.8775730105926</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>202.6156593131931</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>267.6618152323072</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>267.9520693329793</v>
+        <v>146.7950931721234</v>
       </c>
       <c r="X22" t="n">
         <v>207.1387263854255</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>200.0137243484831</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>364.1629126598689</v>
       </c>
       <c r="C23" t="n">
-        <v>346.7019627673959</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>363.3594410686501</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>388.3051167380997</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>393.2052474697179</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>93.96645549401978</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>55.94721600258859</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>189.0873996000162</v>
       </c>
       <c r="U23" t="n">
-        <v>146.1573727505148</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>309.1813294665232</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>330.6700397138013</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>351.1601716748573</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>367.6670096524419</v>
@@ -2417,7 +2417,7 @@
         <v>75.44126057018343</v>
       </c>
       <c r="I24" t="n">
-        <v>5.860876825911603</v>
+        <v>5.860876825911582</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>118.0643386049763</v>
       </c>
       <c r="T24" t="n">
-        <v>173.98836325387</v>
+        <v>173.9883632538702</v>
       </c>
       <c r="U24" t="n">
-        <v>207.2463164652194</v>
+        <v>207.2463164652197</v>
       </c>
       <c r="V24" t="n">
-        <v>214.2296581458138</v>
+        <v>214.2296581458136</v>
       </c>
       <c r="W24" t="n">
         <v>233.1240541573079</v>
@@ -2478,25 +2478,25 @@
         <v>161.2610511783256</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>148.6758920950162</v>
       </c>
       <c r="D25" t="n">
-        <v>130.0445440146007</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>127.8630336429575</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8501190193196</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>147.838156477693</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>129.5917688505847</v>
       </c>
       <c r="I25" t="n">
-        <v>89.30768278159312</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>87.59476131533638</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>177.8775730105926</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>202.615659313193</v>
       </c>
       <c r="U25" t="n">
         <v>267.6618152323072</v>
       </c>
       <c r="V25" t="n">
-        <v>233.5667143202163</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>267.9520693329793</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>10.85903809533983</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.0137243484831</v>
+        <v>164.4000808501163</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>364.1629126598689</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>346.7019627673959</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>363.3594410686501</v>
+        <v>156.348820670003</v>
       </c>
       <c r="F26" t="n">
-        <v>388.3051167380997</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>393.2052474697179</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>55.94721600258859</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>110.0876308424914</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>189.0873996000162</v>
       </c>
       <c r="U26" t="n">
-        <v>108.8617873636024</v>
+        <v>232.4925990208804</v>
       </c>
       <c r="V26" t="n">
-        <v>309.1813294665232</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>330.6700397138013</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>351.1601716748573</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>367.6670096524419</v>
       </c>
     </row>
     <row r="27">
@@ -2642,7 +2642,7 @@
         <v>128.8741365610271</v>
       </c>
       <c r="E27" t="n">
-        <v>139.0741514517893</v>
+        <v>139.0741514517905</v>
       </c>
       <c r="F27" t="n">
         <v>126.4982833897722</v>
@@ -2654,7 +2654,7 @@
         <v>75.4412605701834</v>
       </c>
       <c r="I27" t="n">
-        <v>5.860876825911913</v>
+        <v>5.860876825911575</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>161.2610511783256</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>148.6758920950162</v>
       </c>
       <c r="D28" t="n">
         <v>130.0445440146007</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>127.8630336429575</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>126.8501190193196</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>129.5917688505848</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>87.59476131533638</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>177.8775730105926</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>202.615659313193</v>
       </c>
       <c r="U28" t="n">
         <v>267.6618152323072</v>
       </c>
       <c r="V28" t="n">
-        <v>147.5048094758126</v>
+        <v>233.5667143202163</v>
       </c>
       <c r="W28" t="n">
-        <v>267.9520693329793</v>
+        <v>216.8409631501863</v>
       </c>
       <c r="X28" t="n">
-        <v>207.1387263854255</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>200.0137243484831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>364.1629126598689</v>
+        <v>34.56217518735982</v>
       </c>
       <c r="C29" t="n">
         <v>346.7019627673959</v>
       </c>
       <c r="D29" t="n">
-        <v>336.1121126170713</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>363.3594410686501</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>393.2052474697179</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>56.69138184405007</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>189.0873996000162</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>232.4925990208804</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>330.6700397138013</v>
       </c>
       <c r="X29" t="n">
         <v>351.1601716748573</v>
@@ -2888,10 +2888,10 @@
         <v>116.8857116550141</v>
       </c>
       <c r="H30" t="n">
-        <v>75.44126057018343</v>
+        <v>75.4412605701834</v>
       </c>
       <c r="I30" t="n">
-        <v>5.860876825911596</v>
+        <v>5.860876825911575</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>118.0643386049763</v>
+        <v>118.0643386049765</v>
       </c>
       <c r="T30" t="n">
         <v>173.98836325387</v>
       </c>
       <c r="U30" t="n">
-        <v>207.2463164652195</v>
+        <v>207.2463164652194</v>
       </c>
       <c r="V30" t="n">
         <v>214.2296581458136</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>161.2610511783256</v>
       </c>
       <c r="C31" t="n">
         <v>148.6758920950162</v>
@@ -2958,10 +2958,10 @@
         <v>130.0445440146007</v>
       </c>
       <c r="E31" t="n">
-        <v>127.8630336429575</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8501190193196</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>89.30768278159312</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>196.6765031593497</v>
+        <v>202.615659313193</v>
       </c>
       <c r="U31" t="n">
         <v>267.6618152323072</v>
@@ -3012,13 +3012,13 @@
         <v>233.5667143202163</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>267.9520693329793</v>
       </c>
       <c r="X31" t="n">
-        <v>207.1387263854255</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>116.0072851641476</v>
       </c>
     </row>
     <row r="32">
@@ -3034,16 +3034,16 @@
         <v>346.7019627673959</v>
       </c>
       <c r="D32" t="n">
-        <v>4.49837772302152</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>363.3594410686501</v>
       </c>
       <c r="F32" t="n">
-        <v>388.3051167380997</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>393.2052474697179</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>309.1813294665232</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>113.4679713956659</v>
       </c>
       <c r="X32" t="n">
         <v>351.1601716748573</v>
@@ -3125,10 +3125,10 @@
         <v>116.8857116550141</v>
       </c>
       <c r="H33" t="n">
-        <v>75.4412605701834</v>
+        <v>75.44126057018343</v>
       </c>
       <c r="I33" t="n">
-        <v>5.860876825911589</v>
+        <v>5.860876825911586</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3164,13 +3164,13 @@
         <v>173.98836325387</v>
       </c>
       <c r="U33" t="n">
-        <v>207.2463164652194</v>
+        <v>207.2463164652197</v>
       </c>
       <c r="V33" t="n">
         <v>214.2296581458136</v>
       </c>
       <c r="W33" t="n">
-        <v>233.1240541573084</v>
+        <v>233.1240541573079</v>
       </c>
       <c r="X33" t="n">
         <v>187.2020561998658</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>161.2610511783256</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>89.30768278159312</v>
+        <v>58.55351002292542</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>87.59476131533638</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>166.2196570912421</v>
+        <v>177.8775730105926</v>
       </c>
       <c r="T34" t="n">
-        <v>202.6156593131931</v>
+        <v>202.615659313193</v>
       </c>
       <c r="U34" t="n">
         <v>267.6618152323072</v>
@@ -3249,7 +3249,7 @@
         <v>233.5667143202163</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>267.9520693329793</v>
       </c>
       <c r="X34" t="n">
         <v>207.1387263854255</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>364.1629126598689</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>346.7019627673959</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>363.3594410686501</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>233.5619012621726</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>110.0876308424914</v>
       </c>
       <c r="T35" t="n">
         <v>189.0873996000162</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>232.4925990208804</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>309.1813294665232</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>330.6700397138013</v>
       </c>
       <c r="X35" t="n">
         <v>351.1601716748573</v>
       </c>
       <c r="Y35" t="n">
-        <v>367.6670096524419</v>
+        <v>346.3196655994385</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>75.44126057018343</v>
       </c>
       <c r="I36" t="n">
-        <v>5.860876825911596</v>
+        <v>5.860876825912764</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>118.0643386049763</v>
       </c>
       <c r="T36" t="n">
-        <v>173.9883632538702</v>
+        <v>173.98836325387</v>
       </c>
       <c r="U36" t="n">
-        <v>207.2463164652197</v>
+        <v>207.2463164652194</v>
       </c>
       <c r="V36" t="n">
         <v>214.2296581458136</v>
@@ -3426,7 +3426,7 @@
         <v>161.2610511783256</v>
       </c>
       <c r="C37" t="n">
-        <v>148.6758920950162</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>17.40637169988623</v>
       </c>
       <c r="G37" t="n">
         <v>147.838156477693</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>48.79753352184065</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.59476131533638</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>177.8775730105926</v>
       </c>
       <c r="T37" t="n">
-        <v>202.6156593131931</v>
+        <v>202.615659313193</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>267.6618152323072</v>
       </c>
       <c r="V37" t="n">
         <v>233.5667143202163</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>363.3594410686501</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>388.3051167380997</v>
       </c>
       <c r="G38" t="n">
-        <v>393.2052474697179</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>189.0873996000162</v>
       </c>
       <c r="U38" t="n">
-        <v>232.4925990208804</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>309.1813294665232</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>303.957084813366</v>
+        <v>136.0115312888811</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>351.1601716748573</v>
       </c>
       <c r="Y38" t="n">
         <v>367.6670096524419</v>
@@ -3584,7 +3584,7 @@
         <v>147.9622546462557</v>
       </c>
       <c r="C39" t="n">
-        <v>154.1375699847046</v>
+        <v>154.1375699847041</v>
       </c>
       <c r="D39" t="n">
         <v>128.8741365610271</v>
@@ -3599,10 +3599,10 @@
         <v>116.8857116550141</v>
       </c>
       <c r="H39" t="n">
-        <v>75.4412605701834</v>
+        <v>75.44126057018343</v>
       </c>
       <c r="I39" t="n">
-        <v>5.860876825911589</v>
+        <v>5.860876825912764</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>161.2610511783256</v>
       </c>
       <c r="C40" t="n">
-        <v>148.6758920950162</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>112.7038067967246</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>75.17003185519226</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>129.5917688505848</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>89.30768278159312</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>87.59476131533638</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>177.8775730105926</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>202.615659313193</v>
       </c>
       <c r="U40" t="n">
         <v>267.6618152323072</v>
@@ -3723,13 +3723,13 @@
         <v>233.5667143202163</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>267.9520693329793</v>
       </c>
       <c r="X40" t="n">
         <v>207.1387263854255</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>200.0137243484831</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>95.57081111413828</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.7761764733296</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>303.3584088463768</v>
+        <v>153.8652794434065</v>
       </c>
       <c r="I41" t="n">
         <v>74.51814500620026</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>128.658559846103</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0635280244921</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3833,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>111.9719686163569</v>
+        <v>135.4566406586258</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>136.6352676085879</v>
       </c>
       <c r="T42" t="n">
         <v>192.5592922574817</v>
@@ -3878,7 +3878,7 @@
         <v>225.8172454688311</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>72.68064749856872</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>52.55817420949296</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4090854813046</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.1865883168047</v>
       </c>
       <c r="U43" t="n">
         <v>286.2327442359189</v>
       </c>
       <c r="V43" t="n">
-        <v>98.96421215316762</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>73.13593363327585</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>411.7761764733296</v>
       </c>
       <c r="H44" t="n">
-        <v>303.3584088463768</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>74.51814500620026</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0635280244921</v>
+        <v>76.93750909632067</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.0121895737951</v>
       </c>
       <c r="I45" t="n">
-        <v>24.43180582952327</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>136.6352676085879</v>
       </c>
       <c r="T45" t="n">
-        <v>192.5592922574817</v>
+        <v>73.8838036914558</v>
       </c>
       <c r="U45" t="n">
-        <v>219.3452186818696</v>
+        <v>225.8172454688311</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>23.67898306280516</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4090854813046</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1626978541964</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>106.1656903189481</v>
       </c>
       <c r="S46" t="n">
         <v>196.4485020142043</v>
@@ -4191,16 +4191,16 @@
         <v>221.1865883168047</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2327442359189</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>60.83129012595238</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1276.168790427569</v>
+        <v>1122.74366434063</v>
       </c>
       <c r="C11" t="n">
-        <v>1276.168790427569</v>
+        <v>1122.74366434063</v>
       </c>
       <c r="D11" t="n">
         <v>1122.74366434063</v>
@@ -5035,16 +5035,16 @@
         <v>333.3392560499051</v>
       </c>
       <c r="H11" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="I11" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J11" t="n">
-        <v>162.7590251349061</v>
+        <v>162.7590251349059</v>
       </c>
       <c r="K11" t="n">
-        <v>388.9759438307232</v>
+        <v>388.9759438307231</v>
       </c>
       <c r="L11" t="n">
         <v>706.5197967991064</v>
@@ -5056,37 +5056,37 @@
         <v>1487.359593921124</v>
       </c>
       <c r="O11" t="n">
-        <v>1847.806367728831</v>
+        <v>1847.806367728832</v>
       </c>
       <c r="P11" t="n">
-        <v>2120.938349083915</v>
+        <v>2120.938349083916</v>
       </c>
       <c r="Q11" t="n">
         <v>2277.876345624449</v>
       </c>
       <c r="R11" t="n">
-        <v>2283.756749830348</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="S11" t="n">
-        <v>2172.55712271672</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="T11" t="n">
-        <v>1981.55974938337</v>
+        <v>2092.759376496999</v>
       </c>
       <c r="U11" t="n">
-        <v>1981.55974938337</v>
+        <v>1857.918367384998</v>
       </c>
       <c r="V11" t="n">
-        <v>1981.55974938337</v>
+        <v>1828.134623296432</v>
       </c>
       <c r="W11" t="n">
-        <v>1647.549608258319</v>
+        <v>1494.12448217138</v>
       </c>
       <c r="X11" t="n">
-        <v>1647.549608258319</v>
+        <v>1494.12448217138</v>
       </c>
       <c r="Y11" t="n">
-        <v>1276.168790427569</v>
+        <v>1122.74366434063</v>
       </c>
     </row>
     <row r="12">
@@ -5117,49 +5117,49 @@
         <v>51.59521259853786</v>
       </c>
       <c r="I12" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J12" t="n">
-        <v>96.59165090103824</v>
+        <v>221.421775888043</v>
       </c>
       <c r="K12" t="n">
-        <v>261.7709111699694</v>
+        <v>386.6010361569743</v>
       </c>
       <c r="L12" t="n">
-        <v>530.1973521435075</v>
+        <v>655.0274771305124</v>
       </c>
       <c r="M12" t="n">
-        <v>862.7952160746127</v>
+        <v>987.6253410616177</v>
       </c>
       <c r="N12" t="n">
-        <v>1218.60460070389</v>
+        <v>1343.434725690895</v>
       </c>
       <c r="O12" t="n">
-        <v>1521.880879435355</v>
+        <v>1646.71100442236</v>
       </c>
       <c r="P12" t="n">
-        <v>2061.231905136646</v>
+        <v>1975.912641968142</v>
       </c>
       <c r="Q12" t="n">
-        <v>2283.756749830348</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="R12" t="n">
-        <v>2283.756749830348</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="S12" t="n">
-        <v>2164.499842148554</v>
+        <v>2164.499842148555</v>
       </c>
       <c r="T12" t="n">
-        <v>1988.754020679998</v>
+        <v>1988.754020679999</v>
       </c>
       <c r="U12" t="n">
         <v>1779.414307078767</v>
       </c>
       <c r="V12" t="n">
-        <v>1563.020712992086</v>
+        <v>1563.020712992087</v>
       </c>
       <c r="W12" t="n">
-        <v>1327.541870408947</v>
+        <v>1327.541870408946</v>
       </c>
       <c r="X12" t="n">
         <v>1138.448884348476</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>427.6056394829679</v>
+        <v>427.6056394829682</v>
       </c>
       <c r="C13" t="n">
-        <v>277.4279707001233</v>
+        <v>427.6056394829682</v>
       </c>
       <c r="D13" t="n">
-        <v>277.4279707001233</v>
+        <v>323.1380395390439</v>
       </c>
       <c r="E13" t="n">
-        <v>266.785692200827</v>
+        <v>323.1380395390439</v>
       </c>
       <c r="F13" t="n">
-        <v>266.785692200827</v>
+        <v>195.0066061861958</v>
       </c>
       <c r="G13" t="n">
-        <v>266.785692200827</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="H13" t="n">
-        <v>135.8849155840747</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="I13" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J13" t="n">
-        <v>82.35626453832595</v>
+        <v>82.35626453832599</v>
       </c>
       <c r="K13" t="n">
-        <v>260.6441210945462</v>
+        <v>260.6441210945463</v>
       </c>
       <c r="L13" t="n">
-        <v>539.1760980186435</v>
+        <v>539.1760980186436</v>
       </c>
       <c r="M13" t="n">
-        <v>842.2387210383603</v>
+        <v>842.2387210383604</v>
       </c>
       <c r="N13" t="n">
-        <v>1143.966968114592</v>
+        <v>1143.966968114593</v>
       </c>
       <c r="O13" t="n">
         <v>1408.049038481</v>
@@ -5223,28 +5223,28 @@
         <v>1677.371894558347</v>
       </c>
       <c r="R13" t="n">
-        <v>1588.892337674168</v>
+        <v>1588.892337674169</v>
       </c>
       <c r="S13" t="n">
         <v>1409.218021501853</v>
       </c>
       <c r="T13" t="n">
-        <v>1204.555739367314</v>
+        <v>1204.555739367315</v>
       </c>
       <c r="U13" t="n">
-        <v>934.1902694356909</v>
+        <v>934.1902694356911</v>
       </c>
       <c r="V13" t="n">
-        <v>698.2642953748663</v>
+        <v>698.2642953748665</v>
       </c>
       <c r="W13" t="n">
-        <v>427.6056394829679</v>
+        <v>427.6056394829682</v>
       </c>
       <c r="X13" t="n">
-        <v>427.6056394829679</v>
+        <v>427.6056394829682</v>
       </c>
       <c r="Y13" t="n">
-        <v>427.6056394829679</v>
+        <v>427.6056394829682</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>553.620220392492</v>
+        <v>437.9025256411522</v>
       </c>
       <c r="C14" t="n">
-        <v>203.4162175971426</v>
+        <v>437.9025256411522</v>
       </c>
       <c r="D14" t="n">
-        <v>45.67513499660696</v>
+        <v>437.9025256411522</v>
       </c>
       <c r="E14" t="n">
-        <v>45.67513499660696</v>
+        <v>437.9025256411522</v>
       </c>
       <c r="F14" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="G14" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="H14" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="I14" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J14" t="n">
-        <v>162.7590251349058</v>
+        <v>162.7590251349061</v>
       </c>
       <c r="K14" t="n">
-        <v>388.9759438307227</v>
+        <v>388.9759438307233</v>
       </c>
       <c r="L14" t="n">
-        <v>706.5197967991062</v>
+        <v>706.5197967991069</v>
       </c>
       <c r="M14" t="n">
-        <v>1091.517954820712</v>
+        <v>1091.517954820713</v>
       </c>
       <c r="N14" t="n">
-        <v>1487.359593921124</v>
+        <v>1487.359593921125</v>
       </c>
       <c r="O14" t="n">
-        <v>1847.806367728831</v>
+        <v>1847.806367728832</v>
       </c>
       <c r="P14" t="n">
-        <v>2120.938349083915</v>
+        <v>2120.938349083916</v>
       </c>
       <c r="Q14" t="n">
         <v>2277.876345624449</v>
       </c>
       <c r="R14" t="n">
-        <v>2283.756749830348</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="S14" t="n">
-        <v>2172.55712271672</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="T14" t="n">
-        <v>1981.55974938337</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="U14" t="n">
-        <v>1981.55974938337</v>
+        <v>2048.915740718348</v>
       </c>
       <c r="V14" t="n">
-        <v>1981.55974938337</v>
+        <v>1736.61136751984</v>
       </c>
       <c r="W14" t="n">
-        <v>1647.549608258319</v>
+        <v>1402.601226394788</v>
       </c>
       <c r="X14" t="n">
-        <v>1292.842364142301</v>
+        <v>1047.893982278771</v>
       </c>
       <c r="Y14" t="n">
-        <v>921.4615463115515</v>
+        <v>805.7438515602116</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>799.9902768535786</v>
+        <v>799.9902768535798</v>
       </c>
       <c r="C15" t="n">
-        <v>644.2957617175139</v>
+        <v>644.295761717515</v>
       </c>
       <c r="D15" t="n">
-        <v>514.1198662013248</v>
+        <v>514.119866201326</v>
       </c>
       <c r="E15" t="n">
-        <v>373.6409253409315</v>
+        <v>373.6409253409328</v>
       </c>
       <c r="F15" t="n">
         <v>245.8648815128788</v>
       </c>
       <c r="G15" t="n">
-        <v>127.7985061037737</v>
+        <v>127.7985061037736</v>
       </c>
       <c r="H15" t="n">
         <v>51.59521259853786</v>
       </c>
       <c r="I15" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J15" t="n">
         <v>221.421775888043</v>
       </c>
       <c r="K15" t="n">
-        <v>386.6010361569741</v>
+        <v>386.6010361569743</v>
       </c>
       <c r="L15" t="n">
-        <v>655.0274771305122</v>
+        <v>760.1562299285408</v>
       </c>
       <c r="M15" t="n">
-        <v>987.6253410616175</v>
+        <v>1092.754093859646</v>
       </c>
       <c r="N15" t="n">
-        <v>1343.434725690895</v>
+        <v>1448.563478488923</v>
       </c>
       <c r="O15" t="n">
-        <v>1646.711004422359</v>
+        <v>1751.839757220388</v>
       </c>
       <c r="P15" t="n">
-        <v>2183.889156826632</v>
+        <v>1975.912641968142</v>
       </c>
       <c r="Q15" t="n">
-        <v>2283.756749830348</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="R15" t="n">
-        <v>2283.756749830348</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="S15" t="n">
-        <v>2164.499842148554</v>
+        <v>2164.499842148555</v>
       </c>
       <c r="T15" t="n">
-        <v>1988.754020679998</v>
+        <v>1988.754020679999</v>
       </c>
       <c r="U15" t="n">
-        <v>1779.414307078766</v>
+        <v>1779.414307078767</v>
       </c>
       <c r="V15" t="n">
-        <v>1563.020712992086</v>
+        <v>1563.020712992087</v>
       </c>
       <c r="W15" t="n">
-        <v>1327.541870408947</v>
+        <v>1327.541870408948</v>
       </c>
       <c r="X15" t="n">
-        <v>1138.448884348476</v>
+        <v>1138.448884348477</v>
       </c>
       <c r="Y15" t="n">
-        <v>949.4470997285844</v>
+        <v>949.4470997285855</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>437.0886163179636</v>
+        <v>602.7112010368674</v>
       </c>
       <c r="C16" t="n">
-        <v>437.0886163179636</v>
+        <v>602.7112010368674</v>
       </c>
       <c r="D16" t="n">
-        <v>305.7304910506901</v>
+        <v>602.7112010368674</v>
       </c>
       <c r="E16" t="n">
-        <v>176.5759116133593</v>
+        <v>473.5566215995365</v>
       </c>
       <c r="F16" t="n">
-        <v>176.5759116133593</v>
+        <v>416.1171633904159</v>
       </c>
       <c r="G16" t="n">
-        <v>176.5759116133593</v>
+        <v>266.785692200827</v>
       </c>
       <c r="H16" t="n">
-        <v>45.67513499660696</v>
+        <v>135.8849155840748</v>
       </c>
       <c r="I16" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J16" t="n">
-        <v>82.35626453832595</v>
+        <v>82.35626453832599</v>
       </c>
       <c r="K16" t="n">
-        <v>260.6441210945462</v>
+        <v>260.6441210945463</v>
       </c>
       <c r="L16" t="n">
-        <v>539.1760980186435</v>
+        <v>539.1760980186436</v>
       </c>
       <c r="M16" t="n">
-        <v>842.2387210383603</v>
+        <v>842.2387210383604</v>
       </c>
       <c r="N16" t="n">
-        <v>1143.966968114592</v>
+        <v>1143.966968114593</v>
       </c>
       <c r="O16" t="n">
         <v>1408.049038481</v>
@@ -5460,28 +5460,28 @@
         <v>1677.371894558347</v>
       </c>
       <c r="R16" t="n">
-        <v>1598.375314509164</v>
+        <v>1588.892337674169</v>
       </c>
       <c r="S16" t="n">
-        <v>1418.700998336848</v>
+        <v>1588.892337674169</v>
       </c>
       <c r="T16" t="n">
-        <v>1214.03871620231</v>
+        <v>1588.892337674169</v>
       </c>
       <c r="U16" t="n">
-        <v>943.6732462706865</v>
+        <v>1318.526867742545</v>
       </c>
       <c r="V16" t="n">
-        <v>707.7472722098619</v>
+        <v>1082.600893681721</v>
       </c>
       <c r="W16" t="n">
-        <v>437.0886163179636</v>
+        <v>811.9422377898223</v>
       </c>
       <c r="X16" t="n">
-        <v>437.0886163179636</v>
+        <v>602.7112010368674</v>
       </c>
       <c r="Y16" t="n">
-        <v>437.0886163179636</v>
+        <v>602.7112010368674</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>835.0795432873319</v>
+        <v>1518.763188198873</v>
       </c>
       <c r="C17" t="n">
-        <v>835.0795432873319</v>
+        <v>1518.763188198873</v>
       </c>
       <c r="D17" t="n">
-        <v>835.0795432873319</v>
+        <v>1179.256003737184</v>
       </c>
       <c r="E17" t="n">
-        <v>835.0795432873319</v>
+        <v>1179.256003737184</v>
       </c>
       <c r="F17" t="n">
-        <v>442.8521526427867</v>
+        <v>787.028613092639</v>
       </c>
       <c r="G17" t="n">
-        <v>45.67513499660696</v>
+        <v>389.8515954464593</v>
       </c>
       <c r="H17" t="n">
-        <v>45.67513499660696</v>
+        <v>102.1874743931611</v>
       </c>
       <c r="I17" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J17" t="n">
-        <v>162.7590251349057</v>
+        <v>162.7590251349061</v>
       </c>
       <c r="K17" t="n">
-        <v>388.9759438307227</v>
+        <v>388.9759438307233</v>
       </c>
       <c r="L17" t="n">
-        <v>706.5197967991058</v>
+        <v>706.5197967991069</v>
       </c>
       <c r="M17" t="n">
-        <v>1091.517954820712</v>
+        <v>1091.517954820713</v>
       </c>
       <c r="N17" t="n">
-        <v>1487.359593921124</v>
+        <v>1487.359593921125</v>
       </c>
       <c r="O17" t="n">
-        <v>1847.806367728831</v>
+        <v>1847.806367728832</v>
       </c>
       <c r="P17" t="n">
-        <v>2120.938349083915</v>
+        <v>2120.938349083916</v>
       </c>
       <c r="Q17" t="n">
-        <v>2277.876345624448</v>
+        <v>2277.876345624449</v>
       </c>
       <c r="R17" t="n">
-        <v>2283.756749830348</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="S17" t="n">
-        <v>2172.55712271672</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="T17" t="n">
-        <v>1981.55974938337</v>
+        <v>2092.759376496999</v>
       </c>
       <c r="U17" t="n">
-        <v>1746.71874027137</v>
+        <v>2092.759376496999</v>
       </c>
       <c r="V17" t="n">
-        <v>1561.167605234099</v>
+        <v>1780.455003298491</v>
       </c>
       <c r="W17" t="n">
-        <v>1561.167605234099</v>
+        <v>1780.455003298491</v>
       </c>
       <c r="X17" t="n">
-        <v>1206.460361118081</v>
+        <v>1780.455003298491</v>
       </c>
       <c r="Y17" t="n">
-        <v>835.0795432873319</v>
+        <v>1518.763188198873</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>799.9902768535788</v>
+        <v>799.9902768535784</v>
       </c>
       <c r="C18" t="n">
-        <v>644.2957617175139</v>
+        <v>644.2957617175136</v>
       </c>
       <c r="D18" t="n">
-        <v>514.1198662013248</v>
+        <v>514.1198662013247</v>
       </c>
       <c r="E18" t="n">
-        <v>373.6409253409316</v>
+        <v>373.6409253409315</v>
       </c>
       <c r="F18" t="n">
         <v>245.8648815128788</v>
       </c>
       <c r="G18" t="n">
-        <v>127.7985061037737</v>
+        <v>127.7985061037736</v>
       </c>
       <c r="H18" t="n">
-        <v>51.59521259853787</v>
+        <v>51.59521259853786</v>
       </c>
       <c r="I18" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J18" t="n">
-        <v>221.421775888043</v>
+        <v>219.2489025910243</v>
       </c>
       <c r="K18" t="n">
-        <v>474.9057045866687</v>
+        <v>384.4281628599555</v>
       </c>
       <c r="L18" t="n">
-        <v>743.3321455602068</v>
+        <v>652.8546038334937</v>
       </c>
       <c r="M18" t="n">
-        <v>1075.930009491312</v>
+        <v>985.4524677645991</v>
       </c>
       <c r="N18" t="n">
-        <v>1431.739394120589</v>
+        <v>1341.261852393876</v>
       </c>
       <c r="O18" t="n">
-        <v>1735.015672852054</v>
+        <v>1644.538131125341</v>
       </c>
       <c r="P18" t="n">
-        <v>1959.088557599808</v>
+        <v>2183.889156826633</v>
       </c>
       <c r="Q18" t="n">
-        <v>2266.932665462014</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="R18" t="n">
-        <v>2283.756749830348</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="S18" t="n">
-        <v>2164.499842148554</v>
+        <v>2164.499842148555</v>
       </c>
       <c r="T18" t="n">
-        <v>1988.754020679998</v>
+        <v>1988.754020679999</v>
       </c>
       <c r="U18" t="n">
         <v>1779.414307078767</v>
       </c>
       <c r="V18" t="n">
-        <v>1563.020712992086</v>
+        <v>1563.020712992087</v>
       </c>
       <c r="W18" t="n">
-        <v>1327.541870408947</v>
+        <v>1327.541870408948</v>
       </c>
       <c r="X18" t="n">
         <v>1138.448884348476</v>
       </c>
       <c r="Y18" t="n">
-        <v>949.4470997285846</v>
+        <v>949.4470997285841</v>
       </c>
     </row>
     <row r="19">
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176.5759116133593</v>
+        <v>237.7871853532222</v>
       </c>
       <c r="C19" t="n">
-        <v>176.5759116133593</v>
+        <v>87.60951657037754</v>
       </c>
       <c r="D19" t="n">
-        <v>176.5759116133593</v>
+        <v>87.60951657037754</v>
       </c>
       <c r="E19" t="n">
-        <v>176.5759116133593</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="F19" t="n">
-        <v>176.5759116133593</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="G19" t="n">
-        <v>176.5759116133593</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="H19" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="I19" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J19" t="n">
-        <v>82.35626453832595</v>
+        <v>82.35626453832599</v>
       </c>
       <c r="K19" t="n">
-        <v>260.6441210945462</v>
+        <v>260.6441210945463</v>
       </c>
       <c r="L19" t="n">
-        <v>539.1760980186435</v>
+        <v>539.1760980186436</v>
       </c>
       <c r="M19" t="n">
-        <v>842.2387210383602</v>
+        <v>842.2387210383604</v>
       </c>
       <c r="N19" t="n">
-        <v>1143.966968114592</v>
+        <v>1143.966968114593</v>
       </c>
       <c r="O19" t="n">
         <v>1408.049038481</v>
@@ -5697,28 +5697,28 @@
         <v>1677.371894558347</v>
       </c>
       <c r="R19" t="n">
-        <v>1677.371894558347</v>
+        <v>1588.892337674169</v>
       </c>
       <c r="S19" t="n">
-        <v>1497.697578386031</v>
+        <v>1588.892337674169</v>
       </c>
       <c r="T19" t="n">
-        <v>1293.035296251493</v>
+        <v>1588.892337674169</v>
       </c>
       <c r="U19" t="n">
-        <v>1022.669826319869</v>
+        <v>1318.526867742545</v>
       </c>
       <c r="V19" t="n">
-        <v>819.3555549433901</v>
+        <v>1082.600893681721</v>
       </c>
       <c r="W19" t="n">
-        <v>548.6968990514918</v>
+        <v>811.9422377898223</v>
       </c>
       <c r="X19" t="n">
-        <v>339.4658622985366</v>
+        <v>602.7112010368674</v>
       </c>
       <c r="Y19" t="n">
-        <v>339.4658622985366</v>
+        <v>400.6771360383996</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1039.876178964775</v>
+        <v>1258.621621137068</v>
       </c>
       <c r="C20" t="n">
-        <v>1039.876178964775</v>
+        <v>1258.621621137068</v>
       </c>
       <c r="D20" t="n">
-        <v>700.3689945030872</v>
+        <v>1258.621621137068</v>
       </c>
       <c r="E20" t="n">
-        <v>333.3392560499051</v>
+        <v>891.5918826838861</v>
       </c>
       <c r="F20" t="n">
-        <v>333.3392560499051</v>
+        <v>499.3644920393408</v>
       </c>
       <c r="G20" t="n">
-        <v>333.3392560499051</v>
+        <v>102.1874743931611</v>
       </c>
       <c r="H20" t="n">
-        <v>45.67513499660696</v>
+        <v>102.1874743931611</v>
       </c>
       <c r="I20" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J20" t="n">
         <v>162.7590251349061</v>
       </c>
       <c r="K20" t="n">
-        <v>388.9759438307228</v>
+        <v>388.9759438307233</v>
       </c>
       <c r="L20" t="n">
-        <v>706.5197967991062</v>
+        <v>706.5197967991069</v>
       </c>
       <c r="M20" t="n">
-        <v>1091.517954820712</v>
+        <v>1091.517954820713</v>
       </c>
       <c r="N20" t="n">
-        <v>1487.359593921124</v>
+        <v>1487.359593921125</v>
       </c>
       <c r="O20" t="n">
-        <v>1847.806367728831</v>
+        <v>1847.806367728832</v>
       </c>
       <c r="P20" t="n">
-        <v>2120.938349083915</v>
+        <v>2120.938349083916</v>
       </c>
       <c r="Q20" t="n">
         <v>2277.876345624449</v>
       </c>
       <c r="R20" t="n">
-        <v>2283.756749830348</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="S20" t="n">
-        <v>2172.55712271672</v>
+        <v>2172.557122716721</v>
       </c>
       <c r="T20" t="n">
-        <v>1981.55974938337</v>
+        <v>1997.843764886877</v>
       </c>
       <c r="U20" t="n">
-        <v>1746.71874027137</v>
+        <v>1997.843764886877</v>
       </c>
       <c r="V20" t="n">
-        <v>1434.414367072862</v>
+        <v>1997.843764886877</v>
       </c>
       <c r="W20" t="n">
-        <v>1100.40422594781</v>
+        <v>1997.843764886877</v>
       </c>
       <c r="X20" t="n">
-        <v>1039.876178964775</v>
+        <v>1997.843764886877</v>
       </c>
       <c r="Y20" t="n">
-        <v>1039.876178964775</v>
+        <v>1626.462947056127</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>799.9902768535782</v>
+        <v>799.9902768535784</v>
       </c>
       <c r="C21" t="n">
-        <v>644.2957617175134</v>
+        <v>644.2957617175136</v>
       </c>
       <c r="D21" t="n">
-        <v>514.1198662013246</v>
+        <v>514.1198662013247</v>
       </c>
       <c r="E21" t="n">
-        <v>373.6409253409313</v>
+        <v>373.6409253409315</v>
       </c>
       <c r="F21" t="n">
         <v>245.8648815128788</v>
       </c>
       <c r="G21" t="n">
-        <v>127.7985061037737</v>
+        <v>127.7985061037736</v>
       </c>
       <c r="H21" t="n">
-        <v>51.59521259853787</v>
+        <v>51.59521259853786</v>
       </c>
       <c r="I21" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J21" t="n">
-        <v>221.421775888043</v>
+        <v>219.2489025910243</v>
       </c>
       <c r="K21" t="n">
-        <v>648.4216207994269</v>
+        <v>384.4281628599555</v>
       </c>
       <c r="L21" t="n">
-        <v>951.3086604186974</v>
+        <v>652.8546038334937</v>
       </c>
       <c r="M21" t="n">
-        <v>1283.906524349803</v>
+        <v>985.4524677645991</v>
       </c>
       <c r="N21" t="n">
-        <v>1639.71590897908</v>
+        <v>1341.261852393876</v>
       </c>
       <c r="O21" t="n">
-        <v>1942.992187710545</v>
+        <v>1644.538131125341</v>
       </c>
       <c r="P21" t="n">
-        <v>2167.065072458298</v>
+        <v>2183.889156826633</v>
       </c>
       <c r="Q21" t="n">
-        <v>2266.932665462014</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="R21" t="n">
-        <v>2283.756749830348</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="S21" t="n">
-        <v>2164.499842148554</v>
+        <v>2164.499842148555</v>
       </c>
       <c r="T21" t="n">
-        <v>1988.754020679998</v>
+        <v>1988.754020679999</v>
       </c>
       <c r="U21" t="n">
-        <v>1779.414307078766</v>
+        <v>1779.414307078767</v>
       </c>
       <c r="V21" t="n">
-        <v>1563.020712992085</v>
+        <v>1563.020712992087</v>
       </c>
       <c r="W21" t="n">
         <v>1327.541870408946</v>
@@ -5876,7 +5876,7 @@
         <v>1138.448884348476</v>
       </c>
       <c r="Y21" t="n">
-        <v>949.4470997285839</v>
+        <v>949.4470997285841</v>
       </c>
     </row>
     <row r="22">
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>454.3005767908375</v>
+        <v>954.9389702307128</v>
       </c>
       <c r="C22" t="n">
-        <v>454.3005767908375</v>
+        <v>804.7613014478682</v>
       </c>
       <c r="D22" t="n">
-        <v>452.2926189763747</v>
+        <v>673.4031761805948</v>
       </c>
       <c r="E22" t="n">
-        <v>323.1380395390439</v>
+        <v>544.248596743264</v>
       </c>
       <c r="F22" t="n">
-        <v>195.0066061861958</v>
+        <v>416.1171633904159</v>
       </c>
       <c r="G22" t="n">
-        <v>45.67513499660696</v>
+        <v>266.785692200827</v>
       </c>
       <c r="H22" t="n">
-        <v>45.67513499660696</v>
+        <v>135.8849155840748</v>
       </c>
       <c r="I22" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J22" t="n">
-        <v>82.35626453832595</v>
+        <v>82.35626453832599</v>
       </c>
       <c r="K22" t="n">
-        <v>260.6441210945462</v>
+        <v>260.6441210945463</v>
       </c>
       <c r="L22" t="n">
-        <v>539.1760980186435</v>
+        <v>539.1760980186436</v>
       </c>
       <c r="M22" t="n">
-        <v>842.2387210383602</v>
+        <v>842.2387210383604</v>
       </c>
       <c r="N22" t="n">
-        <v>1143.966968114592</v>
+        <v>1143.966968114593</v>
       </c>
       <c r="O22" t="n">
         <v>1408.049038481</v>
@@ -5934,28 +5934,28 @@
         <v>1677.371894558347</v>
       </c>
       <c r="R22" t="n">
-        <v>1588.892337674168</v>
+        <v>1677.371894558347</v>
       </c>
       <c r="S22" t="n">
-        <v>1409.218021501853</v>
+        <v>1677.371894558347</v>
       </c>
       <c r="T22" t="n">
-        <v>1204.555739367314</v>
+        <v>1677.371894558347</v>
       </c>
       <c r="U22" t="n">
-        <v>934.1902694356909</v>
+        <v>1677.371894558347</v>
       </c>
       <c r="V22" t="n">
-        <v>934.1902694356909</v>
+        <v>1677.371894558347</v>
       </c>
       <c r="W22" t="n">
-        <v>663.5316135437926</v>
+        <v>1529.094022667313</v>
       </c>
       <c r="X22" t="n">
-        <v>454.3005767908375</v>
+        <v>1319.862985914358</v>
       </c>
       <c r="Y22" t="n">
-        <v>454.3005767908375</v>
+        <v>1117.82892091589</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>395.8791377919563</v>
+        <v>1353.537232747189</v>
       </c>
       <c r="C23" t="n">
-        <v>45.67513499660696</v>
+        <v>1353.537232747189</v>
       </c>
       <c r="D23" t="n">
-        <v>45.67513499660696</v>
+        <v>1353.537232747189</v>
       </c>
       <c r="E23" t="n">
-        <v>45.67513499660696</v>
+        <v>986.507494294007</v>
       </c>
       <c r="F23" t="n">
-        <v>45.67513499660696</v>
+        <v>594.2801036494618</v>
       </c>
       <c r="G23" t="n">
-        <v>45.67513499660696</v>
+        <v>197.1030860032821</v>
       </c>
       <c r="H23" t="n">
-        <v>45.67513499660696</v>
+        <v>102.1874743931611</v>
       </c>
       <c r="I23" t="n">
         <v>45.67513499660696</v>
       </c>
       <c r="J23" t="n">
-        <v>162.7590251349061</v>
+        <v>162.7590251349058</v>
       </c>
       <c r="K23" t="n">
         <v>388.9759438307228</v>
       </c>
       <c r="L23" t="n">
-        <v>706.5197967991062</v>
+        <v>706.5197967991057</v>
       </c>
       <c r="M23" t="n">
         <v>1091.517954820712</v>
       </c>
       <c r="N23" t="n">
-        <v>1487.359593921124</v>
+        <v>1487.359593921123</v>
       </c>
       <c r="O23" t="n">
         <v>1847.806367728831</v>
@@ -6019,22 +6019,22 @@
         <v>2283.756749830348</v>
       </c>
       <c r="T23" t="n">
-        <v>2283.756749830348</v>
+        <v>2092.759376496998</v>
       </c>
       <c r="U23" t="n">
-        <v>2136.123039981343</v>
+        <v>2092.759376496998</v>
       </c>
       <c r="V23" t="n">
-        <v>1823.818666782835</v>
+        <v>2092.759376496998</v>
       </c>
       <c r="W23" t="n">
-        <v>1489.808525657783</v>
+        <v>2092.759376496998</v>
       </c>
       <c r="X23" t="n">
-        <v>1135.101281541765</v>
+        <v>2092.759376496998</v>
       </c>
       <c r="Y23" t="n">
-        <v>763.7204637110158</v>
+        <v>1721.378558666248</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>799.9902768535786</v>
+        <v>799.9902768535784</v>
       </c>
       <c r="C24" t="n">
-        <v>644.2957617175139</v>
+        <v>644.2957617175136</v>
       </c>
       <c r="D24" t="n">
-        <v>514.1198662013248</v>
+        <v>514.1198662013247</v>
       </c>
       <c r="E24" t="n">
-        <v>373.6409253409316</v>
+        <v>373.6409253409315</v>
       </c>
       <c r="F24" t="n">
         <v>245.8648815128788</v>
       </c>
       <c r="G24" t="n">
-        <v>127.7985061037737</v>
+        <v>127.7985061037736</v>
       </c>
       <c r="H24" t="n">
-        <v>51.59521259853787</v>
+        <v>51.59521259853785</v>
       </c>
       <c r="I24" t="n">
         <v>45.67513499660696</v>
       </c>
       <c r="J24" t="n">
-        <v>221.421775888043</v>
+        <v>96.59165090103825</v>
       </c>
       <c r="K24" t="n">
-        <v>474.9057045866687</v>
+        <v>384.4281628599549</v>
       </c>
       <c r="L24" t="n">
-        <v>743.3321455602068</v>
+        <v>652.854603833493</v>
       </c>
       <c r="M24" t="n">
-        <v>1075.930009491312</v>
+        <v>985.4524677645983</v>
       </c>
       <c r="N24" t="n">
-        <v>1431.739394120589</v>
+        <v>1341.261852393875</v>
       </c>
       <c r="O24" t="n">
-        <v>1735.015672852054</v>
+        <v>1644.53813112534</v>
       </c>
       <c r="P24" t="n">
-        <v>1959.088557599808</v>
+        <v>2183.889156826632</v>
       </c>
       <c r="Q24" t="n">
-        <v>2266.932665462014</v>
+        <v>2283.756749830348</v>
       </c>
       <c r="R24" t="n">
         <v>2283.756749830348</v>
@@ -6101,19 +6101,19 @@
         <v>1988.754020679998</v>
       </c>
       <c r="U24" t="n">
-        <v>1779.414307078767</v>
+        <v>1779.414307078766</v>
       </c>
       <c r="V24" t="n">
         <v>1563.020712992086</v>
       </c>
       <c r="W24" t="n">
-        <v>1327.541870408947</v>
+        <v>1327.541870408946</v>
       </c>
       <c r="X24" t="n">
         <v>1138.448884348476</v>
       </c>
       <c r="Y24" t="n">
-        <v>949.4470997285844</v>
+        <v>949.4470997285841</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>524.5290536415271</v>
+        <v>605.2396310231235</v>
       </c>
       <c r="C25" t="n">
-        <v>524.5290536415271</v>
+        <v>455.0619622402789</v>
       </c>
       <c r="D25" t="n">
-        <v>393.1709283742536</v>
+        <v>455.0619622402789</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0163489369228</v>
+        <v>325.9073828029481</v>
       </c>
       <c r="F25" t="n">
-        <v>135.8849155840747</v>
+        <v>325.9073828029481</v>
       </c>
       <c r="G25" t="n">
-        <v>135.8849155840747</v>
+        <v>176.5759116133592</v>
       </c>
       <c r="H25" t="n">
-        <v>135.8849155840747</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="I25" t="n">
         <v>45.67513499660696</v>
@@ -6153,13 +6153,13 @@
         <v>260.6441210945462</v>
       </c>
       <c r="L25" t="n">
-        <v>539.1760980186435</v>
+        <v>539.1760980186436</v>
       </c>
       <c r="M25" t="n">
-        <v>842.2387210383602</v>
+        <v>842.2387210383604</v>
       </c>
       <c r="N25" t="n">
-        <v>1143.966968114592</v>
+        <v>1143.966968114593</v>
       </c>
       <c r="O25" t="n">
         <v>1408.049038481</v>
@@ -6171,28 +6171,28 @@
         <v>1677.371894558347</v>
       </c>
       <c r="R25" t="n">
-        <v>1677.371894558347</v>
+        <v>1588.892337674169</v>
       </c>
       <c r="S25" t="n">
-        <v>1677.371894558347</v>
+        <v>1409.218021501853</v>
       </c>
       <c r="T25" t="n">
-        <v>1677.371894558347</v>
+        <v>1204.555739367315</v>
       </c>
       <c r="U25" t="n">
-        <v>1407.006424626723</v>
+        <v>934.1902694356911</v>
       </c>
       <c r="V25" t="n">
-        <v>1171.080450565899</v>
+        <v>934.1902694356911</v>
       </c>
       <c r="W25" t="n">
-        <v>900.4217946740004</v>
+        <v>934.1902694356911</v>
       </c>
       <c r="X25" t="n">
-        <v>889.4530693251722</v>
+        <v>934.1902694356911</v>
       </c>
       <c r="Y25" t="n">
-        <v>687.4190043267045</v>
+        <v>768.1295817083009</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>804.9322640943342</v>
+        <v>1007.496596521562</v>
       </c>
       <c r="C26" t="n">
-        <v>804.9322640943342</v>
+        <v>657.2925937262125</v>
       </c>
       <c r="D26" t="n">
-        <v>804.9322640943342</v>
+        <v>657.2925937262125</v>
       </c>
       <c r="E26" t="n">
-        <v>437.9025256411522</v>
+        <v>499.3644920393408</v>
       </c>
       <c r="F26" t="n">
-        <v>45.67513499660696</v>
+        <v>499.3644920393408</v>
       </c>
       <c r="G26" t="n">
-        <v>45.67513499660696</v>
+        <v>102.1874743931611</v>
       </c>
       <c r="H26" t="n">
-        <v>45.67513499660696</v>
+        <v>102.1874743931611</v>
       </c>
       <c r="I26" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J26" t="n">
-        <v>162.7590251349057</v>
+        <v>162.7590251349066</v>
       </c>
       <c r="K26" t="n">
-        <v>388.9759438307227</v>
+        <v>388.9759438307237</v>
       </c>
       <c r="L26" t="n">
-        <v>706.5197967991058</v>
+        <v>706.5197967991069</v>
       </c>
       <c r="M26" t="n">
-        <v>1091.517954820712</v>
+        <v>1091.517954820713</v>
       </c>
       <c r="N26" t="n">
-        <v>1487.359593921124</v>
+        <v>1487.359593921125</v>
       </c>
       <c r="O26" t="n">
-        <v>1847.806367728831</v>
+        <v>1847.806367728832</v>
       </c>
       <c r="P26" t="n">
-        <v>2120.938349083915</v>
+        <v>2120.938349083916</v>
       </c>
       <c r="Q26" t="n">
-        <v>2277.876345624448</v>
+        <v>2277.87634562445</v>
       </c>
       <c r="R26" t="n">
-        <v>2283.756749830348</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="S26" t="n">
-        <v>2283.756749830348</v>
+        <v>2172.557122716721</v>
       </c>
       <c r="T26" t="n">
-        <v>2283.756749830348</v>
+        <v>1981.559749383371</v>
       </c>
       <c r="U26" t="n">
-        <v>2173.795348452972</v>
+        <v>1746.718740271371</v>
       </c>
       <c r="V26" t="n">
-        <v>1861.490975254463</v>
+        <v>1746.718740271371</v>
       </c>
       <c r="W26" t="n">
-        <v>1527.480834129411</v>
+        <v>1746.718740271371</v>
       </c>
       <c r="X26" t="n">
-        <v>1172.773590013394</v>
+        <v>1746.718740271371</v>
       </c>
       <c r="Y26" t="n">
-        <v>1172.773590013394</v>
+        <v>1375.337922440621</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>799.9902768535788</v>
+        <v>799.9902768535798</v>
       </c>
       <c r="C27" t="n">
-        <v>644.2957617175141</v>
+        <v>644.295761717515</v>
       </c>
       <c r="D27" t="n">
-        <v>514.1198662013251</v>
+        <v>514.119866201326</v>
       </c>
       <c r="E27" t="n">
-        <v>373.6409253409319</v>
+        <v>373.6409253409315</v>
       </c>
       <c r="F27" t="n">
-        <v>245.8648815128791</v>
+        <v>245.8648815128788</v>
       </c>
       <c r="G27" t="n">
-        <v>127.7985061037739</v>
+        <v>127.7985061037736</v>
       </c>
       <c r="H27" t="n">
-        <v>51.59521259853818</v>
+        <v>51.59521259853786</v>
       </c>
       <c r="I27" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J27" t="n">
-        <v>96.59165090103824</v>
+        <v>221.421775888043</v>
       </c>
       <c r="K27" t="n">
-        <v>491.729788955002</v>
+        <v>648.421620799427</v>
       </c>
       <c r="L27" t="n">
-        <v>760.1562299285401</v>
+        <v>916.8480617729651</v>
       </c>
       <c r="M27" t="n">
-        <v>1092.754093859645</v>
+        <v>1300.730608718137</v>
       </c>
       <c r="N27" t="n">
-        <v>1448.563478488923</v>
+        <v>1656.539993347414</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.839757220387</v>
+        <v>1959.816272078879</v>
       </c>
       <c r="P27" t="n">
-        <v>1975.912641968141</v>
+        <v>2183.889156826633</v>
       </c>
       <c r="Q27" t="n">
-        <v>2283.756749830348</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="R27" t="n">
-        <v>2283.756749830348</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="S27" t="n">
-        <v>2164.499842148554</v>
+        <v>2164.499842148555</v>
       </c>
       <c r="T27" t="n">
-        <v>1988.754020679998</v>
+        <v>1988.754020679999</v>
       </c>
       <c r="U27" t="n">
         <v>1779.414307078767</v>
       </c>
       <c r="V27" t="n">
-        <v>1563.020712992086</v>
+        <v>1563.020712992087</v>
       </c>
       <c r="W27" t="n">
-        <v>1327.541870408947</v>
+        <v>1327.541870408948</v>
       </c>
       <c r="X27" t="n">
-        <v>1138.448884348476</v>
+        <v>1138.448884348477</v>
       </c>
       <c r="Y27" t="n">
-        <v>949.4470997285846</v>
+        <v>949.4470997285855</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>307.9340368806327</v>
+        <v>584.4969418369039</v>
       </c>
       <c r="C28" t="n">
-        <v>307.9340368806327</v>
+        <v>434.3192730540593</v>
       </c>
       <c r="D28" t="n">
-        <v>176.5759116133593</v>
+        <v>302.9611477867859</v>
       </c>
       <c r="E28" t="n">
-        <v>176.5759116133593</v>
+        <v>173.806568349455</v>
       </c>
       <c r="F28" t="n">
-        <v>176.5759116133593</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="G28" t="n">
-        <v>176.5759116133593</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="H28" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="I28" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J28" t="n">
-        <v>82.35626453832595</v>
+        <v>82.35626453832597</v>
       </c>
       <c r="K28" t="n">
         <v>260.6441210945462</v>
       </c>
       <c r="L28" t="n">
-        <v>539.1760980186435</v>
+        <v>539.1760980186436</v>
       </c>
       <c r="M28" t="n">
-        <v>842.2387210383603</v>
+        <v>842.2387210383604</v>
       </c>
       <c r="N28" t="n">
-        <v>1143.966968114592</v>
+        <v>1143.966968114593</v>
       </c>
       <c r="O28" t="n">
         <v>1408.049038481</v>
@@ -6408,28 +6408,28 @@
         <v>1677.371894558347</v>
       </c>
       <c r="R28" t="n">
-        <v>1588.892337674168</v>
+        <v>1677.371894558347</v>
       </c>
       <c r="S28" t="n">
-        <v>1409.218021501853</v>
+        <v>1677.371894558347</v>
       </c>
       <c r="T28" t="n">
-        <v>1409.218021501853</v>
+        <v>1472.709612423808</v>
       </c>
       <c r="U28" t="n">
-        <v>1138.852551570229</v>
+        <v>1202.344142492185</v>
       </c>
       <c r="V28" t="n">
-        <v>989.8577945239539</v>
+        <v>966.4181684313604</v>
       </c>
       <c r="W28" t="n">
-        <v>719.1991386320556</v>
+        <v>747.3868925220813</v>
       </c>
       <c r="X28" t="n">
-        <v>509.9681018791005</v>
+        <v>747.3868925220813</v>
       </c>
       <c r="Y28" t="n">
-        <v>307.9340368806327</v>
+        <v>747.3868925220813</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1189.827361964521</v>
+        <v>762.9088762451383</v>
       </c>
       <c r="C29" t="n">
-        <v>839.6233591691719</v>
+        <v>412.7048734497889</v>
       </c>
       <c r="D29" t="n">
-        <v>500.1161747074837</v>
+        <v>412.7048734497889</v>
       </c>
       <c r="E29" t="n">
-        <v>500.1161747074837</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="F29" t="n">
-        <v>500.1161747074837</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="G29" t="n">
-        <v>102.939157061304</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="H29" t="n">
         <v>45.67513499660696</v>
@@ -6463,16 +6463,16 @@
         <v>45.67513499660696</v>
       </c>
       <c r="J29" t="n">
-        <v>162.7590251349057</v>
+        <v>162.7590251349058</v>
       </c>
       <c r="K29" t="n">
-        <v>388.9759438307227</v>
+        <v>388.9759438307228</v>
       </c>
       <c r="L29" t="n">
-        <v>706.5197967991058</v>
+        <v>706.5197967991062</v>
       </c>
       <c r="M29" t="n">
-        <v>1091.517954820712</v>
+        <v>1091.517954820713</v>
       </c>
       <c r="N29" t="n">
         <v>1487.359593921124</v>
@@ -6493,22 +6493,22 @@
         <v>2283.756749830348</v>
       </c>
       <c r="T29" t="n">
-        <v>2283.756749830348</v>
+        <v>2092.759376496998</v>
       </c>
       <c r="U29" t="n">
-        <v>2283.756749830348</v>
+        <v>1857.918367384998</v>
       </c>
       <c r="V29" t="n">
-        <v>2283.756749830348</v>
+        <v>1857.918367384998</v>
       </c>
       <c r="W29" t="n">
-        <v>2283.756749830348</v>
+        <v>1523.908226259946</v>
       </c>
       <c r="X29" t="n">
-        <v>1929.04950571433</v>
+        <v>1169.200982143928</v>
       </c>
       <c r="Y29" t="n">
-        <v>1557.668687883581</v>
+        <v>797.8201643131786</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>799.9902768535786</v>
+        <v>799.9902768535784</v>
       </c>
       <c r="C30" t="n">
-        <v>644.2957617175139</v>
+        <v>644.2957617175136</v>
       </c>
       <c r="D30" t="n">
-        <v>514.1198662013248</v>
+        <v>514.1198662013247</v>
       </c>
       <c r="E30" t="n">
-        <v>373.6409253409316</v>
+        <v>373.6409253409315</v>
       </c>
       <c r="F30" t="n">
         <v>245.8648815128788</v>
@@ -6536,31 +6536,31 @@
         <v>127.7985061037736</v>
       </c>
       <c r="H30" t="n">
-        <v>51.59521259853786</v>
+        <v>51.59521259853784</v>
       </c>
       <c r="I30" t="n">
         <v>45.67513499660696</v>
       </c>
       <c r="J30" t="n">
-        <v>96.59165090103824</v>
+        <v>221.421775888043</v>
       </c>
       <c r="K30" t="n">
-        <v>523.5914958124222</v>
+        <v>491.7297889550019</v>
       </c>
       <c r="L30" t="n">
-        <v>792.0179367859603</v>
+        <v>760.15622992854</v>
       </c>
       <c r="M30" t="n">
-        <v>1124.615800717065</v>
+        <v>1092.754093859645</v>
       </c>
       <c r="N30" t="n">
-        <v>1480.425185346342</v>
+        <v>1448.563478488923</v>
       </c>
       <c r="O30" t="n">
-        <v>1783.701464077807</v>
+        <v>1751.839757220387</v>
       </c>
       <c r="P30" t="n">
-        <v>2007.774348825561</v>
+        <v>1975.912641968141</v>
       </c>
       <c r="Q30" t="n">
         <v>2283.756749830348</v>
@@ -6569,7 +6569,7 @@
         <v>2283.756749830348</v>
       </c>
       <c r="S30" t="n">
-        <v>2164.499842148554</v>
+        <v>2164.499842148553</v>
       </c>
       <c r="T30" t="n">
         <v>1988.754020679998</v>
@@ -6581,13 +6581,13 @@
         <v>1563.020712992086</v>
       </c>
       <c r="W30" t="n">
-        <v>1327.541870408947</v>
+        <v>1327.541870408946</v>
       </c>
       <c r="X30" t="n">
         <v>1138.448884348476</v>
       </c>
       <c r="Y30" t="n">
-        <v>949.4470997285844</v>
+        <v>949.4470997285841</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>674.7067224243717</v>
+        <v>327.210929046725</v>
       </c>
       <c r="C31" t="n">
-        <v>524.5290536415271</v>
+        <v>177.0332602638804</v>
       </c>
       <c r="D31" t="n">
-        <v>393.1709283742536</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="E31" t="n">
-        <v>264.0163489369228</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="F31" t="n">
-        <v>135.8849155840747</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="G31" t="n">
-        <v>135.8849155840747</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="H31" t="n">
-        <v>135.8849155840747</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="I31" t="n">
         <v>45.67513499660696</v>
@@ -6627,13 +6627,13 @@
         <v>260.6441210945462</v>
       </c>
       <c r="L31" t="n">
-        <v>539.1760980186435</v>
+        <v>539.1760980186436</v>
       </c>
       <c r="M31" t="n">
-        <v>842.2387210383603</v>
+        <v>842.2387210383604</v>
       </c>
       <c r="N31" t="n">
-        <v>1143.966968114592</v>
+        <v>1143.966968114593</v>
       </c>
       <c r="O31" t="n">
         <v>1408.049038481</v>
@@ -6645,28 +6645,28 @@
         <v>1677.371894558347</v>
       </c>
       <c r="R31" t="n">
-        <v>1588.892337674168</v>
+        <v>1588.892337674169</v>
       </c>
       <c r="S31" t="n">
-        <v>1588.892337674168</v>
+        <v>1588.892337674169</v>
       </c>
       <c r="T31" t="n">
-        <v>1390.229203169775</v>
+        <v>1384.23005553963</v>
       </c>
       <c r="U31" t="n">
-        <v>1119.863733238151</v>
+        <v>1113.864585608007</v>
       </c>
       <c r="V31" t="n">
-        <v>883.9377591773268</v>
+        <v>877.9386115471822</v>
       </c>
       <c r="W31" t="n">
-        <v>883.9377591773268</v>
+        <v>607.2799556552839</v>
       </c>
       <c r="X31" t="n">
-        <v>674.7067224243717</v>
+        <v>607.2799556552839</v>
       </c>
       <c r="Y31" t="n">
-        <v>674.7067224243717</v>
+        <v>490.1008797319024</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1189.827361964521</v>
+        <v>762.9088762451383</v>
       </c>
       <c r="C32" t="n">
-        <v>839.6233591691719</v>
+        <v>412.7048734497889</v>
       </c>
       <c r="D32" t="n">
-        <v>835.0795432873319</v>
+        <v>412.7048734497889</v>
       </c>
       <c r="E32" t="n">
-        <v>835.0795432873319</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="F32" t="n">
-        <v>442.8521526427867</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="G32" t="n">
         <v>45.67513499660696</v>
@@ -6700,16 +6700,16 @@
         <v>45.67513499660696</v>
       </c>
       <c r="J32" t="n">
-        <v>162.7590251349056</v>
+        <v>162.7590251349058</v>
       </c>
       <c r="K32" t="n">
         <v>388.9759438307228</v>
       </c>
       <c r="L32" t="n">
-        <v>706.519796799106</v>
+        <v>706.5197967991061</v>
       </c>
       <c r="M32" t="n">
-        <v>1091.517954820712</v>
+        <v>1091.517954820713</v>
       </c>
       <c r="N32" t="n">
         <v>1487.359593921124</v>
@@ -6736,16 +6736,16 @@
         <v>2283.756749830348</v>
       </c>
       <c r="V32" t="n">
-        <v>2283.756749830348</v>
+        <v>1971.45237663184</v>
       </c>
       <c r="W32" t="n">
-        <v>2283.756749830348</v>
+        <v>1856.838264110965</v>
       </c>
       <c r="X32" t="n">
-        <v>1929.04950571433</v>
+        <v>1502.131019994947</v>
       </c>
       <c r="Y32" t="n">
-        <v>1557.668687883581</v>
+        <v>1130.750202164198</v>
       </c>
     </row>
     <row r="33">
@@ -6761,46 +6761,46 @@
         <v>644.2957617175136</v>
       </c>
       <c r="D33" t="n">
-        <v>514.1198662013247</v>
+        <v>514.1198662013246</v>
       </c>
       <c r="E33" t="n">
-        <v>373.6409253409315</v>
+        <v>373.6409253409314</v>
       </c>
       <c r="F33" t="n">
-        <v>245.8648815128788</v>
+        <v>245.8648815128787</v>
       </c>
       <c r="G33" t="n">
-        <v>127.7985061037736</v>
+        <v>127.7985061037737</v>
       </c>
       <c r="H33" t="n">
-        <v>51.59521259853786</v>
+        <v>51.59521259853785</v>
       </c>
       <c r="I33" t="n">
         <v>45.67513499660696</v>
       </c>
       <c r="J33" t="n">
-        <v>221.421775888043</v>
+        <v>96.59165090103825</v>
       </c>
       <c r="K33" t="n">
-        <v>474.9057045866687</v>
+        <v>523.5914958124223</v>
       </c>
       <c r="L33" t="n">
-        <v>743.3321455602068</v>
+        <v>792.0179367859605</v>
       </c>
       <c r="M33" t="n">
-        <v>1075.930009491312</v>
+        <v>1124.615800717066</v>
       </c>
       <c r="N33" t="n">
-        <v>1431.739394120589</v>
+        <v>1480.425185346343</v>
       </c>
       <c r="O33" t="n">
-        <v>1735.015672852054</v>
+        <v>1783.701464077808</v>
       </c>
       <c r="P33" t="n">
-        <v>1959.088557599808</v>
+        <v>2007.774348825561</v>
       </c>
       <c r="Q33" t="n">
-        <v>2266.932665462014</v>
+        <v>2283.756749830348</v>
       </c>
       <c r="R33" t="n">
         <v>2283.756749830348</v>
@@ -6812,7 +6812,7 @@
         <v>1988.754020679998</v>
       </c>
       <c r="U33" t="n">
-        <v>1779.414307078767</v>
+        <v>1779.414307078766</v>
       </c>
       <c r="V33" t="n">
         <v>1563.020712992086</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>135.8849155840747</v>
+        <v>104.8200946157235</v>
       </c>
       <c r="C34" t="n">
-        <v>135.8849155840747</v>
+        <v>104.8200946157235</v>
       </c>
       <c r="D34" t="n">
-        <v>135.8849155840747</v>
+        <v>104.8200946157235</v>
       </c>
       <c r="E34" t="n">
-        <v>135.8849155840747</v>
+        <v>104.8200946157235</v>
       </c>
       <c r="F34" t="n">
-        <v>135.8849155840747</v>
+        <v>104.8200946157235</v>
       </c>
       <c r="G34" t="n">
-        <v>135.8849155840747</v>
+        <v>104.8200946157235</v>
       </c>
       <c r="H34" t="n">
-        <v>135.8849155840747</v>
+        <v>104.8200946157235</v>
       </c>
       <c r="I34" t="n">
         <v>45.67513499660696</v>
@@ -6864,13 +6864,13 @@
         <v>260.6441210945462</v>
       </c>
       <c r="L34" t="n">
-        <v>539.1760980186435</v>
+        <v>539.1760980186436</v>
       </c>
       <c r="M34" t="n">
-        <v>842.2387210383603</v>
+        <v>842.2387210383604</v>
       </c>
       <c r="N34" t="n">
-        <v>1143.966968114592</v>
+        <v>1143.966968114593</v>
       </c>
       <c r="O34" t="n">
         <v>1408.049038481</v>
@@ -6882,28 +6882,28 @@
         <v>1677.371894558347</v>
       </c>
       <c r="R34" t="n">
-        <v>1588.892337674168</v>
+        <v>1677.371894558347</v>
       </c>
       <c r="S34" t="n">
-        <v>1420.993694147661</v>
+        <v>1497.697578386031</v>
       </c>
       <c r="T34" t="n">
-        <v>1216.331412013123</v>
+        <v>1293.035296251493</v>
       </c>
       <c r="U34" t="n">
-        <v>945.9659420814995</v>
+        <v>1022.669826319869</v>
       </c>
       <c r="V34" t="n">
-        <v>710.0399680206749</v>
+        <v>786.7438522590447</v>
       </c>
       <c r="W34" t="n">
-        <v>710.0399680206749</v>
+        <v>516.0851963671464</v>
       </c>
       <c r="X34" t="n">
-        <v>500.8089312677199</v>
+        <v>306.8541596141914</v>
       </c>
       <c r="Y34" t="n">
-        <v>298.7748662692521</v>
+        <v>104.8200946157235</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>998.8299886311713</v>
+        <v>395.8791377919563</v>
       </c>
       <c r="C35" t="n">
-        <v>648.6259858358219</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="D35" t="n">
-        <v>648.6259858358219</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="E35" t="n">
-        <v>281.5962473826399</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="F35" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="G35" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="H35" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="I35" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J35" t="n">
-        <v>162.7590251349061</v>
+        <v>162.7590251349059</v>
       </c>
       <c r="K35" t="n">
-        <v>388.9759438307228</v>
+        <v>388.9759438307229</v>
       </c>
       <c r="L35" t="n">
         <v>706.5197967991062</v>
       </c>
       <c r="M35" t="n">
-        <v>1091.517954820712</v>
+        <v>1091.517954820713</v>
       </c>
       <c r="N35" t="n">
         <v>1487.359593921124</v>
       </c>
       <c r="O35" t="n">
-        <v>1847.806367728831</v>
+        <v>1847.806367728832</v>
       </c>
       <c r="P35" t="n">
-        <v>2120.938349083915</v>
+        <v>2120.938349083916</v>
       </c>
       <c r="Q35" t="n">
-        <v>2277.876345624449</v>
+        <v>2277.87634562445</v>
       </c>
       <c r="R35" t="n">
-        <v>2283.756749830348</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="S35" t="n">
-        <v>2283.756749830348</v>
+        <v>2172.557122716721</v>
       </c>
       <c r="T35" t="n">
-        <v>2092.759376496998</v>
+        <v>1981.559749383371</v>
       </c>
       <c r="U35" t="n">
-        <v>2092.759376496998</v>
+        <v>1746.718740271371</v>
       </c>
       <c r="V35" t="n">
-        <v>2092.759376496998</v>
+        <v>1434.414367072863</v>
       </c>
       <c r="W35" t="n">
-        <v>2092.759376496998</v>
+        <v>1100.404225947811</v>
       </c>
       <c r="X35" t="n">
-        <v>1738.05213238098</v>
+        <v>745.6969818317932</v>
       </c>
       <c r="Y35" t="n">
-        <v>1366.671314550231</v>
+        <v>395.8791377919563</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>799.9902768535784</v>
+        <v>799.9902768535798</v>
       </c>
       <c r="C36" t="n">
-        <v>644.2957617175136</v>
+        <v>644.295761717515</v>
       </c>
       <c r="D36" t="n">
-        <v>514.1198662013247</v>
+        <v>514.119866201326</v>
       </c>
       <c r="E36" t="n">
-        <v>373.6409253409315</v>
+        <v>373.6409253409328</v>
       </c>
       <c r="F36" t="n">
-        <v>245.8648815128788</v>
+        <v>245.86488151288</v>
       </c>
       <c r="G36" t="n">
-        <v>127.7985061037736</v>
+        <v>127.7985061037749</v>
       </c>
       <c r="H36" t="n">
-        <v>51.59521259853786</v>
+        <v>51.59521259853906</v>
       </c>
       <c r="I36" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J36" t="n">
         <v>221.421775888043</v>
       </c>
       <c r="K36" t="n">
-        <v>648.4216207994269</v>
+        <v>474.9057045866694</v>
       </c>
       <c r="L36" t="n">
-        <v>916.848061772965</v>
+        <v>743.3321455602076</v>
       </c>
       <c r="M36" t="n">
-        <v>1249.44592570407</v>
+        <v>1075.930009491313</v>
       </c>
       <c r="N36" t="n">
-        <v>1605.255310333348</v>
+        <v>1431.73939412059</v>
       </c>
       <c r="O36" t="n">
-        <v>1908.531589064812</v>
+        <v>1735.015672852055</v>
       </c>
       <c r="P36" t="n">
-        <v>2132.604473812566</v>
+        <v>1959.088557599809</v>
       </c>
       <c r="Q36" t="n">
-        <v>2266.932665462014</v>
+        <v>2266.932665462015</v>
       </c>
       <c r="R36" t="n">
-        <v>2283.756749830348</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="S36" t="n">
-        <v>2164.499842148554</v>
+        <v>2164.499842148555</v>
       </c>
       <c r="T36" t="n">
-        <v>1988.754020679998</v>
+        <v>1988.754020679999</v>
       </c>
       <c r="U36" t="n">
-        <v>1779.414307078766</v>
+        <v>1779.414307078767</v>
       </c>
       <c r="V36" t="n">
-        <v>1563.020712992086</v>
+        <v>1563.020712992087</v>
       </c>
       <c r="W36" t="n">
-        <v>1327.541870408946</v>
+        <v>1327.541870408948</v>
       </c>
       <c r="X36" t="n">
-        <v>1138.448884348476</v>
+        <v>1138.448884348477</v>
       </c>
       <c r="Y36" t="n">
-        <v>949.4470997285841</v>
+        <v>949.4470997285855</v>
       </c>
     </row>
     <row r="37">
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>394.4747128698896</v>
+        <v>212.5887998224445</v>
       </c>
       <c r="C37" t="n">
-        <v>244.297044087045</v>
+        <v>212.5887998224445</v>
       </c>
       <c r="D37" t="n">
-        <v>244.297044087045</v>
+        <v>212.5887998224445</v>
       </c>
       <c r="E37" t="n">
-        <v>244.297044087045</v>
+        <v>212.5887998224445</v>
       </c>
       <c r="F37" t="n">
-        <v>244.297044087045</v>
+        <v>195.0066061861958</v>
       </c>
       <c r="G37" t="n">
-        <v>94.9655728974561</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="H37" t="n">
-        <v>94.9655728974561</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="I37" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J37" t="n">
-        <v>82.35626453832595</v>
+        <v>82.35626453832597</v>
       </c>
       <c r="K37" t="n">
         <v>260.6441210945462</v>
       </c>
       <c r="L37" t="n">
-        <v>539.1760980186435</v>
+        <v>539.1760980186436</v>
       </c>
       <c r="M37" t="n">
-        <v>842.2387210383603</v>
+        <v>842.2387210383604</v>
       </c>
       <c r="N37" t="n">
-        <v>1143.966968114592</v>
+        <v>1143.966968114593</v>
       </c>
       <c r="O37" t="n">
         <v>1408.049038481</v>
@@ -7119,28 +7119,28 @@
         <v>1677.371894558347</v>
       </c>
       <c r="R37" t="n">
-        <v>1588.892337674168</v>
+        <v>1677.371894558347</v>
       </c>
       <c r="S37" t="n">
-        <v>1409.218021501853</v>
+        <v>1497.697578386031</v>
       </c>
       <c r="T37" t="n">
-        <v>1204.555739367314</v>
+        <v>1293.035296251493</v>
       </c>
       <c r="U37" t="n">
-        <v>1204.555739367314</v>
+        <v>1022.669826319869</v>
       </c>
       <c r="V37" t="n">
-        <v>968.6297653064897</v>
+        <v>786.7438522590447</v>
       </c>
       <c r="W37" t="n">
-        <v>968.6297653064897</v>
+        <v>786.7438522590447</v>
       </c>
       <c r="X37" t="n">
-        <v>759.3987285535347</v>
+        <v>577.5128155060897</v>
       </c>
       <c r="Y37" t="n">
-        <v>557.364663555067</v>
+        <v>375.478750507622</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>499.3644920393408</v>
+        <v>861.4446034908883</v>
       </c>
       <c r="C38" t="n">
-        <v>499.3644920393408</v>
+        <v>861.4446034908883</v>
       </c>
       <c r="D38" t="n">
-        <v>499.3644920393408</v>
+        <v>861.4446034908883</v>
       </c>
       <c r="E38" t="n">
-        <v>499.3644920393408</v>
+        <v>494.4148650377063</v>
       </c>
       <c r="F38" t="n">
-        <v>499.3644920393408</v>
+        <v>102.1874743931611</v>
       </c>
       <c r="G38" t="n">
         <v>102.1874743931611</v>
@@ -7171,55 +7171,55 @@
         <v>102.1874743931611</v>
       </c>
       <c r="I38" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J38" t="n">
         <v>162.7590251349061</v>
       </c>
       <c r="K38" t="n">
-        <v>388.9759438307228</v>
+        <v>388.9759438307233</v>
       </c>
       <c r="L38" t="n">
-        <v>706.5197967991062</v>
+        <v>706.5197967991064</v>
       </c>
       <c r="M38" t="n">
-        <v>1091.517954820712</v>
+        <v>1091.517954820713</v>
       </c>
       <c r="N38" t="n">
         <v>1487.359593921124</v>
       </c>
       <c r="O38" t="n">
-        <v>1847.806367728831</v>
+        <v>1847.806367728832</v>
       </c>
       <c r="P38" t="n">
         <v>2120.938349083915</v>
       </c>
       <c r="Q38" t="n">
-        <v>2277.876345624449</v>
+        <v>2277.87634562445</v>
       </c>
       <c r="R38" t="n">
-        <v>2283.756749830348</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="S38" t="n">
-        <v>2283.756749830348</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="T38" t="n">
-        <v>2092.759376496998</v>
+        <v>2092.759376496999</v>
       </c>
       <c r="U38" t="n">
-        <v>1857.918367384998</v>
+        <v>2092.759376496999</v>
       </c>
       <c r="V38" t="n">
-        <v>1545.613994186489</v>
+        <v>2092.759376496999</v>
       </c>
       <c r="W38" t="n">
-        <v>1238.58663578915</v>
+        <v>1955.373991356715</v>
       </c>
       <c r="X38" t="n">
-        <v>1238.58663578915</v>
+        <v>1600.666747240697</v>
       </c>
       <c r="Y38" t="n">
-        <v>867.2058179584003</v>
+        <v>1229.285929409948</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>799.9902768535788</v>
+        <v>799.9902768535798</v>
       </c>
       <c r="C39" t="n">
-        <v>644.2957617175136</v>
+        <v>644.295761717515</v>
       </c>
       <c r="D39" t="n">
-        <v>514.1198662013247</v>
+        <v>514.119866201326</v>
       </c>
       <c r="E39" t="n">
-        <v>373.6409253409315</v>
+        <v>373.6409253409328</v>
       </c>
       <c r="F39" t="n">
-        <v>245.8648815128788</v>
+        <v>245.86488151288</v>
       </c>
       <c r="G39" t="n">
-        <v>127.7985061037736</v>
+        <v>127.7985061037749</v>
       </c>
       <c r="H39" t="n">
-        <v>51.59521259853786</v>
+        <v>51.59521259853906</v>
       </c>
       <c r="I39" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J39" t="n">
         <v>221.421775888043</v>
       </c>
       <c r="K39" t="n">
-        <v>491.729788955002</v>
+        <v>648.421620799427</v>
       </c>
       <c r="L39" t="n">
-        <v>760.1562299285401</v>
+        <v>916.8480617729651</v>
       </c>
       <c r="M39" t="n">
-        <v>1092.754093859645</v>
+        <v>1249.44592570407</v>
       </c>
       <c r="N39" t="n">
-        <v>1448.563478488923</v>
+        <v>1639.715908979081</v>
       </c>
       <c r="O39" t="n">
-        <v>1751.839757220387</v>
+        <v>1942.992187710546</v>
       </c>
       <c r="P39" t="n">
-        <v>1975.912641968141</v>
+        <v>2167.065072458299</v>
       </c>
       <c r="Q39" t="n">
-        <v>2283.756749830348</v>
+        <v>2266.932665462015</v>
       </c>
       <c r="R39" t="n">
-        <v>2283.756749830348</v>
+        <v>2283.756749830349</v>
       </c>
       <c r="S39" t="n">
-        <v>2164.499842148554</v>
+        <v>2164.499842148555</v>
       </c>
       <c r="T39" t="n">
-        <v>1988.754020679998</v>
+        <v>1988.754020679999</v>
       </c>
       <c r="U39" t="n">
         <v>1779.414307078767</v>
       </c>
       <c r="V39" t="n">
-        <v>1563.020712992086</v>
+        <v>1563.020712992087</v>
       </c>
       <c r="W39" t="n">
-        <v>1327.541870408947</v>
+        <v>1327.541870408948</v>
       </c>
       <c r="X39" t="n">
-        <v>1138.448884348476</v>
+        <v>1138.448884348477</v>
       </c>
       <c r="Y39" t="n">
-        <v>949.4470997285846</v>
+        <v>949.4470997285855</v>
       </c>
     </row>
     <row r="40">
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>530.8055900712723</v>
+        <v>121.6044601028618</v>
       </c>
       <c r="C40" t="n">
-        <v>380.6279212884276</v>
+        <v>121.6044601028618</v>
       </c>
       <c r="D40" t="n">
-        <v>266.785692200827</v>
+        <v>121.6044601028618</v>
       </c>
       <c r="E40" t="n">
-        <v>266.785692200827</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="F40" t="n">
-        <v>266.785692200827</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="G40" t="n">
-        <v>266.785692200827</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="H40" t="n">
-        <v>135.8849155840747</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="I40" t="n">
-        <v>45.67513499660696</v>
+        <v>45.67513499660698</v>
       </c>
       <c r="J40" t="n">
-        <v>82.35626453832595</v>
+        <v>82.35626453832597</v>
       </c>
       <c r="K40" t="n">
         <v>260.6441210945462</v>
       </c>
       <c r="L40" t="n">
-        <v>539.1760980186435</v>
+        <v>539.1760980186436</v>
       </c>
       <c r="M40" t="n">
-        <v>842.2387210383603</v>
+        <v>842.2387210383604</v>
       </c>
       <c r="N40" t="n">
-        <v>1143.966968114592</v>
+        <v>1143.966968114593</v>
       </c>
       <c r="O40" t="n">
         <v>1408.049038481</v>
@@ -7356,28 +7356,28 @@
         <v>1677.371894558347</v>
       </c>
       <c r="R40" t="n">
-        <v>1588.892337674168</v>
+        <v>1677.371894558347</v>
       </c>
       <c r="S40" t="n">
-        <v>1409.218021501853</v>
+        <v>1677.371894558347</v>
       </c>
       <c r="T40" t="n">
-        <v>1409.218021501853</v>
+        <v>1472.709612423808</v>
       </c>
       <c r="U40" t="n">
-        <v>1138.852551570229</v>
+        <v>1202.344142492185</v>
       </c>
       <c r="V40" t="n">
-        <v>902.9265775094046</v>
+        <v>966.4181684313604</v>
       </c>
       <c r="W40" t="n">
-        <v>902.9265775094046</v>
+        <v>695.7595125394621</v>
       </c>
       <c r="X40" t="n">
-        <v>693.6955407564496</v>
+        <v>486.528475786507</v>
       </c>
       <c r="Y40" t="n">
-        <v>693.6955407564496</v>
+        <v>284.4944107880392</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1325.628580968634</v>
+        <v>1003.593678270645</v>
       </c>
       <c r="C41" t="n">
-        <v>1229.09240812607</v>
+        <v>634.631161330233</v>
       </c>
       <c r="D41" t="n">
-        <v>1229.09240812607</v>
+        <v>276.3654627234825</v>
       </c>
       <c r="E41" t="n">
-        <v>843.304155527826</v>
+        <v>276.3654627234825</v>
       </c>
       <c r="F41" t="n">
-        <v>843.304155527826</v>
+        <v>276.3654627234825</v>
       </c>
       <c r="G41" t="n">
-        <v>427.3686237365839</v>
+        <v>276.3654627234825</v>
       </c>
       <c r="H41" t="n">
         <v>120.9459885382234</v>
       </c>
       <c r="I41" t="n">
-        <v>45.67513499660695</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="J41" t="n">
         <v>162.7590251349057</v>
@@ -7432,31 +7432,31 @@
         <v>2120.938349083915</v>
       </c>
       <c r="Q41" t="n">
-        <v>2277.876345624448</v>
+        <v>2277.876345624449</v>
       </c>
       <c r="R41" t="n">
-        <v>2283.756749830347</v>
+        <v>2283.756749830348</v>
       </c>
       <c r="S41" t="n">
-        <v>2283.756749830347</v>
+        <v>2153.798608571658</v>
       </c>
       <c r="T41" t="n">
-        <v>2283.756749830347</v>
+        <v>2153.798608571658</v>
       </c>
       <c r="U41" t="n">
-        <v>2030.157226573285</v>
+        <v>2153.798608571658</v>
       </c>
       <c r="V41" t="n">
-        <v>1699.094339229714</v>
+        <v>2153.798608571658</v>
       </c>
       <c r="W41" t="n">
-        <v>1699.094339229714</v>
+        <v>2153.798608571658</v>
       </c>
       <c r="X41" t="n">
-        <v>1325.628580968634</v>
+        <v>1780.332850310578</v>
       </c>
       <c r="Y41" t="n">
-        <v>1325.628580968634</v>
+        <v>1390.193518334766</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>787.9375855199364</v>
+        <v>811.6594764717232</v>
       </c>
       <c r="C42" t="n">
-        <v>613.4845562388094</v>
+        <v>637.2064471905962</v>
       </c>
       <c r="D42" t="n">
-        <v>464.5501465775582</v>
+        <v>488.2720375293449</v>
       </c>
       <c r="E42" t="n">
-        <v>305.3126915721027</v>
+        <v>329.0345825238894</v>
       </c>
       <c r="F42" t="n">
-        <v>158.7781335989876</v>
+        <v>182.5000245507744</v>
       </c>
       <c r="G42" t="n">
-        <v>45.67513499660695</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="H42" t="n">
-        <v>45.67513499660695</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="I42" t="n">
-        <v>45.67513499660695</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="J42" t="n">
-        <v>221.421775888043</v>
+        <v>96.59165090103824</v>
       </c>
       <c r="K42" t="n">
-        <v>491.7297889550016</v>
+        <v>491.729788955002</v>
       </c>
       <c r="L42" t="n">
-        <v>760.1562299285397</v>
+        <v>760.1562299285401</v>
       </c>
       <c r="M42" t="n">
         <v>1092.754093859645</v>
       </c>
       <c r="N42" t="n">
-        <v>1448.563478488922</v>
+        <v>1448.563478488923</v>
       </c>
       <c r="O42" t="n">
         <v>1751.839757220387</v>
@@ -7511,31 +7511,31 @@
         <v>1975.912641968141</v>
       </c>
       <c r="Q42" t="n">
-        <v>2283.756749830347</v>
+        <v>2283.756749830348</v>
       </c>
       <c r="R42" t="n">
-        <v>2283.756749830347</v>
+        <v>2283.756749830348</v>
       </c>
       <c r="S42" t="n">
-        <v>2283.756749830347</v>
+        <v>2145.741328003491</v>
       </c>
       <c r="T42" t="n">
-        <v>2089.252414216729</v>
+        <v>1951.236992389873</v>
       </c>
       <c r="U42" t="n">
-        <v>1861.154186470435</v>
+        <v>1723.138764643579</v>
       </c>
       <c r="V42" t="n">
-        <v>1626.002078238693</v>
+        <v>1649.723969190479</v>
       </c>
       <c r="W42" t="n">
-        <v>1371.764721510491</v>
+        <v>1395.486612462278</v>
       </c>
       <c r="X42" t="n">
-        <v>1163.913221304958</v>
+        <v>1187.635112256745</v>
       </c>
       <c r="Y42" t="n">
-        <v>956.1529225400045</v>
+        <v>979.8748134917912</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>510.7717072415041</v>
+        <v>245.654147352591</v>
       </c>
       <c r="C43" t="n">
-        <v>510.7717072415041</v>
+        <v>245.654147352591</v>
       </c>
       <c r="D43" t="n">
-        <v>360.6550678291684</v>
+        <v>192.5650824945173</v>
       </c>
       <c r="E43" t="n">
-        <v>360.6550678291684</v>
+        <v>192.5650824945173</v>
       </c>
       <c r="F43" t="n">
-        <v>213.7651203312581</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="G43" t="n">
-        <v>45.67513499660695</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="H43" t="n">
-        <v>45.67513499660695</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="I43" t="n">
-        <v>45.67513499660695</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="J43" t="n">
-        <v>63.97104482475038</v>
+        <v>63.97104482475039</v>
       </c>
       <c r="K43" t="n">
         <v>223.8736816673951</v>
@@ -7599,22 +7599,22 @@
         <v>1530.290136849742</v>
       </c>
       <c r="T43" t="n">
-        <v>1530.290136849742</v>
+        <v>1306.869340570142</v>
       </c>
       <c r="U43" t="n">
-        <v>1241.166152773057</v>
+        <v>1017.745356493456</v>
       </c>
       <c r="V43" t="n">
-        <v>1141.202302113291</v>
+        <v>763.060868287569</v>
       </c>
       <c r="W43" t="n">
-        <v>1141.202302113291</v>
+        <v>473.6436982506083</v>
       </c>
       <c r="X43" t="n">
-        <v>913.212751215274</v>
+        <v>245.654147352591</v>
       </c>
       <c r="Y43" t="n">
-        <v>692.4201720717439</v>
+        <v>245.654147352591</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1495.261517533372</v>
+        <v>1702.618194657729</v>
       </c>
       <c r="C44" t="n">
-        <v>1126.29900059296</v>
+        <v>1333.655677717317</v>
       </c>
       <c r="D44" t="n">
-        <v>768.0333019862095</v>
+        <v>1333.655677717317</v>
       </c>
       <c r="E44" t="n">
-        <v>768.0333019862095</v>
+        <v>947.867425119073</v>
       </c>
       <c r="F44" t="n">
-        <v>768.0333019862095</v>
+        <v>536.8815203294655</v>
       </c>
       <c r="G44" t="n">
-        <v>352.0977701949674</v>
+        <v>120.9459885382234</v>
       </c>
       <c r="H44" t="n">
-        <v>45.67513499660695</v>
+        <v>120.9459885382234</v>
       </c>
       <c r="I44" t="n">
-        <v>45.67513499660695</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="J44" t="n">
         <v>162.7590251349056</v>
       </c>
       <c r="K44" t="n">
-        <v>388.9759438307224</v>
+        <v>388.9759438307228</v>
       </c>
       <c r="L44" t="n">
-        <v>706.5197967991057</v>
+        <v>706.519796799106</v>
       </c>
       <c r="M44" t="n">
         <v>1091.517954820712</v>
       </c>
       <c r="N44" t="n">
-        <v>1487.359593921123</v>
+        <v>1487.359593921124</v>
       </c>
       <c r="O44" t="n">
-        <v>1847.806367728831</v>
+        <v>1847.806367728832</v>
       </c>
       <c r="P44" t="n">
         <v>2120.938349083915</v>
       </c>
       <c r="Q44" t="n">
-        <v>2277.876345624448</v>
+        <v>2277.876345624449</v>
       </c>
       <c r="R44" t="n">
-        <v>2283.756749830347</v>
+        <v>2283.756749830348</v>
       </c>
       <c r="S44" t="n">
-        <v>2153.798608571657</v>
+        <v>2153.798608571658</v>
       </c>
       <c r="T44" t="n">
-        <v>2153.798608571657</v>
+        <v>2153.798608571658</v>
       </c>
       <c r="U44" t="n">
-        <v>1900.199085314595</v>
+        <v>2076.083952918809</v>
       </c>
       <c r="V44" t="n">
-        <v>1569.136197971024</v>
+        <v>2076.083952918809</v>
       </c>
       <c r="W44" t="n">
-        <v>1569.136197971024</v>
+        <v>2076.083952918809</v>
       </c>
       <c r="X44" t="n">
-        <v>1569.136197971024</v>
+        <v>1702.618194657729</v>
       </c>
       <c r="Y44" t="n">
-        <v>1569.136197971024</v>
+        <v>1702.618194657729</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>794.4749863148471</v>
+        <v>769.7963945678538</v>
       </c>
       <c r="C45" t="n">
-        <v>620.0219570337201</v>
+        <v>595.3433652867268</v>
       </c>
       <c r="D45" t="n">
-        <v>471.0875473724688</v>
+        <v>446.4089556254756</v>
       </c>
       <c r="E45" t="n">
-        <v>311.8500923670133</v>
+        <v>287.1715006200201</v>
       </c>
       <c r="F45" t="n">
-        <v>165.3155343938982</v>
+        <v>140.636942646905</v>
       </c>
       <c r="G45" t="n">
-        <v>165.3155343938982</v>
+        <v>140.636942646905</v>
       </c>
       <c r="H45" t="n">
-        <v>70.35372674360015</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="I45" t="n">
-        <v>45.67513499660695</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="J45" t="n">
         <v>221.421775888043</v>
       </c>
       <c r="K45" t="n">
-        <v>474.9057045866682</v>
+        <v>648.4216207994269</v>
       </c>
       <c r="L45" t="n">
-        <v>743.3321455602063</v>
+        <v>916.848061772965</v>
       </c>
       <c r="M45" t="n">
-        <v>1075.930009491311</v>
+        <v>1249.44592570407</v>
       </c>
       <c r="N45" t="n">
-        <v>1431.739394120589</v>
+        <v>1605.255310333348</v>
       </c>
       <c r="O45" t="n">
-        <v>1735.015672852054</v>
+        <v>1959.816272078878</v>
       </c>
       <c r="P45" t="n">
-        <v>1959.088557599807</v>
+        <v>2183.889156826632</v>
       </c>
       <c r="Q45" t="n">
-        <v>2266.932665462014</v>
+        <v>2283.756749830348</v>
       </c>
       <c r="R45" t="n">
-        <v>2283.756749830347</v>
+        <v>2283.756749830348</v>
       </c>
       <c r="S45" t="n">
-        <v>2283.756749830347</v>
+        <v>2145.741328003491</v>
       </c>
       <c r="T45" t="n">
-        <v>2089.252414216729</v>
+        <v>2071.111223264647</v>
       </c>
       <c r="U45" t="n">
-        <v>1867.691587265346</v>
+        <v>1843.012995518353</v>
       </c>
       <c r="V45" t="n">
-        <v>1632.539479033603</v>
+        <v>1607.86088728661</v>
       </c>
       <c r="W45" t="n">
-        <v>1378.302122305402</v>
+        <v>1353.623530558408</v>
       </c>
       <c r="X45" t="n">
-        <v>1170.450622099869</v>
+        <v>1145.772030352876</v>
       </c>
       <c r="Y45" t="n">
-        <v>962.6903233349151</v>
+        <v>938.0117315879218</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.7651203312581</v>
+        <v>977.2802745136188</v>
       </c>
       <c r="C46" t="n">
-        <v>213.7651203312581</v>
+        <v>808.3440915857119</v>
       </c>
       <c r="D46" t="n">
-        <v>213.7651203312581</v>
+        <v>658.2274521733762</v>
       </c>
       <c r="E46" t="n">
-        <v>213.7651203312581</v>
+        <v>510.314358590983</v>
       </c>
       <c r="F46" t="n">
-        <v>213.7651203312581</v>
+        <v>363.4244110930727</v>
       </c>
       <c r="G46" t="n">
-        <v>45.67513499660695</v>
+        <v>195.3344257584216</v>
       </c>
       <c r="H46" t="n">
-        <v>45.67513499660695</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="I46" t="n">
-        <v>45.67513499660695</v>
+        <v>45.67513499660696</v>
       </c>
       <c r="J46" t="n">
-        <v>63.97104482475038</v>
+        <v>63.97104482475039</v>
       </c>
       <c r="K46" t="n">
         <v>223.8736816673951</v>
@@ -7830,28 +7830,28 @@
         <v>1530.290136849742</v>
       </c>
       <c r="R46" t="n">
-        <v>1530.290136849742</v>
+        <v>1423.052065820502</v>
       </c>
       <c r="S46" t="n">
-        <v>1331.857306532364</v>
+        <v>1224.619235503124</v>
       </c>
       <c r="T46" t="n">
-        <v>1108.436510252763</v>
+        <v>1001.198439223523</v>
       </c>
       <c r="U46" t="n">
-        <v>819.3125261760777</v>
+        <v>1001.198439223523</v>
       </c>
       <c r="V46" t="n">
-        <v>564.6280379701908</v>
+        <v>1001.198439223523</v>
       </c>
       <c r="W46" t="n">
-        <v>275.2108679332302</v>
+        <v>1001.198439223523</v>
       </c>
       <c r="X46" t="n">
-        <v>213.7651203312581</v>
+        <v>1001.198439223523</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.7651203312581</v>
+        <v>1001.198439223523</v>
       </c>
     </row>
   </sheetData>
@@ -8458,16 +8458,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L8" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M8" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N8" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O8" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P8" t="n">
         <v>95.50771753390021</v>
@@ -8552,7 +8552,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8619,7 +8619,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M10" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N10" t="n">
         <v>62.89780050171086</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>106.1906593919476</v>
       </c>
       <c r="Q12" t="n">
-        <v>123.8962138282682</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>28.52764519684285</v>
+        <v>28.52764519684283</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>106.1906593919479</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>316.2679471277966</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>28.52764519684285</v>
+        <v>28.52764519684283</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>123.8962138282687</v>
       </c>
       <c r="K18" t="n">
-        <v>89.19663477746923</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>28.52764519684283</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>123.8962138282687</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>34.80868550073978</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>28.52764519684283</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>89.19663477746923</v>
+        <v>123.8962138282681</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>28.52764519684284</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>232.2816947323562</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.80271011521859</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>28.52764519684285</v>
+        <v>28.52764519684284</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>106.1906593919472</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>177.8937454556271</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>28.52764519684285</v>
+        <v>28.52764519684284</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>89.19663477746923</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>177.8937454556266</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>28.52764519684284</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>89.19663477746991</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.8086855007397</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>106.1906593919474</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>34.80868550074069</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>28.52764519684285</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>106.190659391947</v>
+        <v>232.2816947323562</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>89.19663477746877</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>51.80271011521785</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>28.52764519684285</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.35889816588482</v>
+        <v>14.3588981658848</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>346.7019627673959</v>
       </c>
       <c r="D11" t="n">
-        <v>184.2212377910018</v>
+        <v>336.1121126170713</v>
       </c>
       <c r="E11" t="n">
         <v>363.3594410686501</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>55.94721600258859</v>
+        <v>55.94721600258856</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>110.0876308424914</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>232.4925990208804</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>309.1813294665232</v>
+        <v>279.695422818842</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>161.2610511783256</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>148.6758920950162</v>
       </c>
       <c r="D13" t="n">
-        <v>130.0445440146007</v>
+        <v>26.62162007011568</v>
       </c>
       <c r="E13" t="n">
-        <v>117.3271779286542</v>
+        <v>127.8630336429575</v>
       </c>
       <c r="F13" t="n">
-        <v>126.8501190193196</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>147.838156477693</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>129.5917688505847</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.3076827815931</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>346.7019627673959</v>
       </c>
       <c r="D14" t="n">
-        <v>179.948440842541</v>
+        <v>336.1121126170713</v>
       </c>
       <c r="E14" t="n">
         <v>363.3594410686501</v>
       </c>
       <c r="F14" t="n">
-        <v>388.3051167380997</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>393.2052474697179</v>
@@ -23515,7 +23515,7 @@
         <v>284.7874798427652</v>
       </c>
       <c r="I14" t="n">
-        <v>55.94721600258859</v>
+        <v>55.94721600258856</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>110.0876308424914</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>189.0873996000162</v>
       </c>
       <c r="U14" t="n">
-        <v>232.4925990208804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>309.1813294665232</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>127.9383802410685</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>148.6758920950162</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>130.0445440146007</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>126.8501190193196</v>
+        <v>69.98505539229015</v>
       </c>
       <c r="G16" t="n">
-        <v>147.838156477693</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>89.30768278159312</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.388147066645701</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>177.8775730105926</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>202.615659313193</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>207.1387263854255</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>200.0137243484831</v>
@@ -23737,7 +23737,7 @@
         <v>346.7019627673959</v>
       </c>
       <c r="D17" t="n">
-        <v>336.1121126170713</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>363.3594410686501</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>284.7874798427652</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>55.94721600258859</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>110.0876308424914</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>232.4925990208804</v>
       </c>
       <c r="V17" t="n">
-        <v>125.4857057796249</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>330.6700397138013</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>351.1601716748573</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>108.5921127038201</v>
       </c>
     </row>
     <row r="18">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>148.6758920950162</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>130.0445440146007</v>
       </c>
       <c r="E19" t="n">
-        <v>127.8630336429575</v>
+        <v>86.34799588492466</v>
       </c>
       <c r="F19" t="n">
         <v>126.8501190193196</v>
@@ -23907,10 +23907,10 @@
         <v>147.838156477693</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>129.5917688505847</v>
       </c>
       <c r="I19" t="n">
-        <v>89.30768278159312</v>
+        <v>89.3076827815931</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>87.59476131533638</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>177.8775730105926</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>202.615659313193</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>32.28558565750208</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>200.0137243484831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>364.1629126598689</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>346.7019627673959</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>336.1121126170713</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>388.3051167380997</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>393.2052474697179</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>284.7874798427652</v>
       </c>
       <c r="I20" t="n">
-        <v>55.94721600258859</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>16.12117534847047</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>232.4925990208804</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>309.1813294665232</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>330.6700397138013</v>
       </c>
       <c r="X20" t="n">
-        <v>291.2374051616532</v>
+        <v>351.1601716748573</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.6670096524419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>161.2610511783256</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>148.6758920950162</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>128.0566657782825</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>129.5917688505848</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>89.30768278159312</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>87.59476131533637</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>177.8775730105926</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>202.615659313193</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>267.6618152323072</v>
       </c>
       <c r="V22" t="n">
         <v>233.5667143202163</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>121.1569761608559</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>200.0137243484831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>346.7019627673959</v>
       </c>
       <c r="D23" t="n">
         <v>336.1121126170713</v>
       </c>
       <c r="E23" t="n">
-        <v>363.3594410686501</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>388.3051167380997</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>393.2052474697179</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>284.7874798427652</v>
+        <v>190.8210243487454</v>
       </c>
       <c r="I23" t="n">
-        <v>55.94721600258859</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>110.0876308424914</v>
       </c>
       <c r="T23" t="n">
-        <v>189.0873996000162</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>86.33522627036561</v>
+        <v>232.4925990208804</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>309.1813294665232</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>330.6700397138013</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>351.1601716748573</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>148.6758920950162</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.0445440146007</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>126.8501190193196</v>
       </c>
       <c r="G25" t="n">
-        <v>147.838156477693</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>129.5917688505848</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>89.30768278159312</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>87.59476131533638</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>177.8775730105926</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>202.6156593131931</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>233.5667143202163</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>267.9520693329793</v>
       </c>
       <c r="X25" t="n">
-        <v>196.2796882900857</v>
+        <v>207.1387263854255</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>35.6136434983668</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>346.7019627673959</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>336.1121126170713</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>207.0106203986471</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>388.3051167380997</v>
       </c>
       <c r="G26" t="n">
-        <v>393.2052474697179</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>284.7874798427652</v>
       </c>
       <c r="I26" t="n">
-        <v>55.94721600258859</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>110.0876308424914</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>189.0873996000162</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>123.630811657278</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>309.1813294665232</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>330.6700397138013</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>351.1601716748573</v>
       </c>
       <c r="Y26" t="n">
-        <v>367.6670096524419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.2610511783256</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>148.6758920950162</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>127.8630336429575</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8501190193196</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>147.838156477693</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>129.5917688505847</v>
       </c>
       <c r="I28" t="n">
         <v>89.30768278159312</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>87.59476131533638</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>177.8775730105926</v>
       </c>
       <c r="T28" t="n">
-        <v>202.6156593131931</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>86.06190484440373</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>51.11110618279301</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>207.1387263854255</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>200.0137243484831</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>329.6007374725091</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>336.1121126170713</v>
       </c>
       <c r="E29" t="n">
-        <v>363.3594410686501</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>388.3051167380997</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>393.2052474697179</v>
       </c>
       <c r="H29" t="n">
-        <v>228.0960979987151</v>
+        <v>284.7874798427652</v>
       </c>
       <c r="I29" t="n">
         <v>55.94721600258859</v>
@@ -24733,16 +24733,16 @@
         <v>110.0876308424914</v>
       </c>
       <c r="T29" t="n">
-        <v>189.0873996000162</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>232.4925990208804</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>309.1813294665232</v>
       </c>
       <c r="W29" t="n">
-        <v>330.6700397138013</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.2610511783256</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>127.8630336429575</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>126.8501190193196</v>
       </c>
       <c r="G31" t="n">
         <v>147.838156477693</v>
       </c>
       <c r="H31" t="n">
-        <v>129.5917688505848</v>
+        <v>129.5917688505847</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>89.30768278159312</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>177.8775730105926</v>
       </c>
       <c r="T31" t="n">
-        <v>5.939156153843413</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>267.9520693329793</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>207.1387263854255</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.0137243484831</v>
+        <v>84.00643918433549</v>
       </c>
     </row>
     <row r="32">
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>331.6137348940497</v>
+        <v>336.1121126170713</v>
       </c>
       <c r="E32" t="n">
-        <v>363.3594410686501</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>388.3051167380997</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>393.2052474697179</v>
       </c>
       <c r="H32" t="n">
         <v>284.7874798427652</v>
@@ -24976,10 +24976,10 @@
         <v>232.4925990208804</v>
       </c>
       <c r="V32" t="n">
-        <v>309.1813294665232</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>330.6700397138013</v>
+        <v>217.2020683181354</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>161.2610511783256</v>
       </c>
       <c r="C34" t="n">
         <v>148.6758920950162</v>
@@ -25092,10 +25092,10 @@
         <v>147.838156477693</v>
       </c>
       <c r="H34" t="n">
-        <v>129.5917688505848</v>
+        <v>129.5917688505847</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>30.75417275866769</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>87.59476131533638</v>
       </c>
       <c r="S34" t="n">
-        <v>11.6579159193505</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>267.9520693329793</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>364.1629126598689</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,10 +25162,10 @@
         <v>336.1121126170713</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>363.3594410686501</v>
       </c>
       <c r="F35" t="n">
-        <v>154.7432154759271</v>
+        <v>388.3051167380997</v>
       </c>
       <c r="G35" t="n">
         <v>393.2052474697179</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>110.0876308424914</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>232.4925990208804</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>309.1813294665232</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>330.6700397138013</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>21.34734405300344</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>148.6758920950162</v>
       </c>
       <c r="D37" t="n">
         <v>130.0445440146007</v>
@@ -25323,16 +25323,16 @@
         <v>127.8630336429575</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8501190193196</v>
+        <v>109.4437473194334</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>129.5917688505848</v>
+        <v>129.5917688505847</v>
       </c>
       <c r="I37" t="n">
-        <v>40.51014925975247</v>
+        <v>89.30768278159312</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.59476131533638</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>267.6618152323072</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25399,13 +25399,13 @@
         <v>336.1121126170713</v>
       </c>
       <c r="E38" t="n">
-        <v>363.3594410686501</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>388.3051167380997</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>393.2052474697179</v>
       </c>
       <c r="H38" t="n">
         <v>284.7874798427652</v>
@@ -25447,16 +25447,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>232.4925990208804</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>309.1813294665232</v>
       </c>
       <c r="W38" t="n">
-        <v>26.71295490043531</v>
+        <v>194.6585084249203</v>
       </c>
       <c r="X38" t="n">
-        <v>351.1601716748573</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>148.6758920950162</v>
       </c>
       <c r="D40" t="n">
-        <v>17.34073721787612</v>
+        <v>130.0445440146007</v>
       </c>
       <c r="E40" t="n">
-        <v>127.8630336429575</v>
+        <v>52.69300178776524</v>
       </c>
       <c r="F40" t="n">
         <v>126.8501190193196</v>
@@ -25566,10 +25566,10 @@
         <v>147.838156477693</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>129.5917688505847</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>89.30768278159312</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>87.59476131533638</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>177.8775730105926</v>
       </c>
       <c r="T40" t="n">
-        <v>202.6156593131931</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>267.9520693329793</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>200.0137243484831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>269.7020806568693</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.7761764733296</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>149.4931294029703</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>128.658559846103</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>207.6583286036279</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0635280244921</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>23.48467204226888</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>94.0121895737951</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>136.6352676085879</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>160.1199396508566</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>96.05729880871939</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4090854813046</v>
       </c>
       <c r="H43" t="n">
         <v>148.1626978541964</v>
@@ -25839,22 +25839,22 @@
         <v>196.4485020142043</v>
       </c>
       <c r="T43" t="n">
-        <v>221.1865883168047</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>153.1734311706604</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>309.5979080302047</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>303.3584088463768</v>
       </c>
       <c r="I44" t="n">
-        <v>74.51814500620026</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>207.6583286036279</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>174.1260189281714</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>24.43180582952327</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>136.6352676085879</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>118.6754885660259</v>
       </c>
       <c r="U45" t="n">
-        <v>6.472026786961493</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>156.1529971191321</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1626978541964</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>107.8786117852048</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>106.1656903189481</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2327442359189</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>164.8783652630848</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>612852.3654531944</v>
+        <v>612852.3654531945</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>612852.3654531944</v>
+        <v>612852.3654531945</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>612852.3654531946</v>
+        <v>612852.3654531945</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>570472.2010448994</v>
+        <v>570472.2010448995</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>570472.2010448993</v>
+        <v>570472.2010448995</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655421.0709736304</v>
+        <v>655421.0709736306</v>
       </c>
       <c r="C2" t="n">
-        <v>655421.0709736305</v>
+        <v>655421.0709736306</v>
       </c>
       <c r="D2" t="n">
         <v>655481.174663391</v>
       </c>
       <c r="E2" t="n">
+        <v>495340.1175934898</v>
+      </c>
+      <c r="F2" t="n">
         <v>495340.1175934899</v>
       </c>
-      <c r="F2" t="n">
-        <v>495340.1175934897</v>
-      </c>
       <c r="G2" t="n">
-        <v>495340.1175934899</v>
+        <v>495340.1175934898</v>
       </c>
       <c r="H2" t="n">
-        <v>495340.1175934897</v>
+        <v>495340.1175934898</v>
       </c>
       <c r="I2" t="n">
         <v>495340.1175934898</v>
       </c>
       <c r="J2" t="n">
-        <v>495340.1175934898</v>
+        <v>495340.1175934899</v>
       </c>
       <c r="K2" t="n">
         <v>495340.1175934898</v>
       </c>
       <c r="L2" t="n">
-        <v>495340.1175934898</v>
+        <v>495340.1175934897</v>
       </c>
       <c r="M2" t="n">
-        <v>495340.1175934897</v>
+        <v>495340.1175934899</v>
       </c>
       <c r="N2" t="n">
-        <v>495340.1175934898</v>
+        <v>495340.1175934899</v>
       </c>
       <c r="O2" t="n">
-        <v>459651.5580917677</v>
+        <v>459651.5580917679</v>
       </c>
       <c r="P2" t="n">
         <v>459651.5580917679</v>
@@ -26374,7 +26374,7 @@
         <v>201068.9115716352</v>
       </c>
       <c r="E3" t="n">
-        <v>701474.5049616368</v>
+        <v>701474.5049616371</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>142280.3292711805</v>
+        <v>142280.32927118</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>50611.83389418408</v>
       </c>
       <c r="F4" t="n">
+        <v>50611.83389418409</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50611.83389418409</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50611.83389418409</v>
+      </c>
+      <c r="I4" t="n">
         <v>50611.83389418408</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>50611.83389418409</v>
+      </c>
+      <c r="K4" t="n">
         <v>50611.83389418407</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>50611.83389418408</v>
       </c>
-      <c r="I4" t="n">
-        <v>50611.83389418406</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50611.83389418408</v>
-      </c>
-      <c r="K4" t="n">
-        <v>50611.83389418412</v>
-      </c>
-      <c r="L4" t="n">
-        <v>50611.83389418406</v>
-      </c>
       <c r="M4" t="n">
-        <v>50611.83389418408</v>
+        <v>50611.83389418409</v>
       </c>
       <c r="N4" t="n">
-        <v>50611.83389418406</v>
+        <v>50611.83389418409</v>
       </c>
       <c r="O4" t="n">
         <v>25103.66780646134</v>
       </c>
       <c r="P4" t="n">
-        <v>25103.66780646133</v>
+        <v>25103.66780646134</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>38745.80483114667</v>
       </c>
       <c r="E5" t="n">
-        <v>55398.00091727656</v>
+        <v>55398.00091727657</v>
       </c>
       <c r="F5" t="n">
-        <v>55398.00091727656</v>
+        <v>55398.00091727657</v>
       </c>
       <c r="G5" t="n">
-        <v>55398.00091727656</v>
+        <v>55398.00091727657</v>
       </c>
       <c r="H5" t="n">
-        <v>55398.00091727656</v>
+        <v>55398.00091727657</v>
       </c>
       <c r="I5" t="n">
         <v>55398.00091727656</v>
       </c>
       <c r="J5" t="n">
-        <v>55398.00091727656</v>
+        <v>55398.00091727657</v>
       </c>
       <c r="K5" t="n">
         <v>55398.00091727656</v>
@@ -26502,10 +26502,10 @@
         <v>55398.00091727656</v>
       </c>
       <c r="M5" t="n">
-        <v>55398.00091727656</v>
+        <v>55398.00091727657</v>
       </c>
       <c r="N5" t="n">
-        <v>55398.00091727656</v>
+        <v>55398.00091727657</v>
       </c>
       <c r="O5" t="n">
         <v>53836.76148687192</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158598.6040928395</v>
+        <v>158638.3262936528</v>
       </c>
       <c r="C6" t="n">
-        <v>158598.6040928396</v>
+        <v>158638.3262936528</v>
       </c>
       <c r="D6" t="n">
-        <v>31707.03148096063</v>
+        <v>31745.06326549914</v>
       </c>
       <c r="E6" t="n">
-        <v>-317190.8877514181</v>
+        <v>-312648.888736789</v>
       </c>
       <c r="F6" t="n">
-        <v>384283.6172102186</v>
+        <v>388825.6162248482</v>
       </c>
       <c r="G6" t="n">
-        <v>384283.6172102188</v>
+        <v>388825.6162248481</v>
       </c>
       <c r="H6" t="n">
-        <v>384283.6172102186</v>
+        <v>388825.6162248481</v>
       </c>
       <c r="I6" t="n">
-        <v>384283.6172102187</v>
+        <v>388825.6162248481</v>
       </c>
       <c r="J6" t="n">
-        <v>369426.8740073293</v>
+        <v>373968.8730219589</v>
       </c>
       <c r="K6" t="n">
-        <v>384283.6172102186</v>
+        <v>388825.6162248481</v>
       </c>
       <c r="L6" t="n">
-        <v>384283.6172102187</v>
+        <v>388825.616224848</v>
       </c>
       <c r="M6" t="n">
-        <v>242003.2879390381</v>
+        <v>246545.2869536682</v>
       </c>
       <c r="N6" t="n">
-        <v>384283.6172102187</v>
+        <v>388825.6162248482</v>
       </c>
       <c r="O6" t="n">
-        <v>374549.1957421951</v>
+        <v>380094.9354928107</v>
       </c>
       <c r="P6" t="n">
-        <v>374549.1957421954</v>
+        <v>380094.9354928107</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
-        <v>877.2320591491122</v>
+        <v>877.2320591491124</v>
       </c>
       <c r="F3" t="n">
-        <v>877.2320591491122</v>
+        <v>877.2320591491124</v>
       </c>
       <c r="G3" t="n">
-        <v>877.2320591491122</v>
+        <v>877.2320591491124</v>
       </c>
       <c r="H3" t="n">
-        <v>877.2320591491122</v>
+        <v>877.2320591491124</v>
       </c>
       <c r="I3" t="n">
-        <v>877.2320591491122</v>
+        <v>877.2320591491123</v>
       </c>
       <c r="J3" t="n">
-        <v>877.2320591491122</v>
+        <v>877.2320591491123</v>
       </c>
       <c r="K3" t="n">
-        <v>877.2320591491122</v>
+        <v>877.2320591491123</v>
       </c>
       <c r="L3" t="n">
-        <v>877.2320591491122</v>
+        <v>877.2320591491123</v>
       </c>
       <c r="M3" t="n">
-        <v>877.2320591491122</v>
+        <v>877.2320591491123</v>
       </c>
       <c r="N3" t="n">
-        <v>877.2320591491122</v>
+        <v>877.2320591491123</v>
       </c>
       <c r="O3" t="n">
         <v>877.2320591491122</v>
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>570.939187457587</v>
+        <v>570.9391874575872</v>
       </c>
       <c r="F4" t="n">
-        <v>570.939187457587</v>
+        <v>570.9391874575872</v>
       </c>
       <c r="G4" t="n">
-        <v>570.939187457587</v>
+        <v>570.9391874575872</v>
       </c>
       <c r="H4" t="n">
-        <v>570.939187457587</v>
+        <v>570.9391874575872</v>
       </c>
       <c r="I4" t="n">
         <v>570.939187457587</v>
       </c>
       <c r="J4" t="n">
-        <v>570.939187457587</v>
+        <v>570.9391874575872</v>
       </c>
       <c r="K4" t="n">
         <v>570.939187457587</v>
@@ -26822,16 +26822,16 @@
         <v>570.939187457587</v>
       </c>
       <c r="M4" t="n">
+        <v>570.9391874575872</v>
+      </c>
+      <c r="N4" t="n">
+        <v>570.9391874575872</v>
+      </c>
+      <c r="O4" t="n">
         <v>570.939187457587</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>570.939187457587</v>
-      </c>
-      <c r="O4" t="n">
-        <v>570.9391874575869</v>
-      </c>
-      <c r="P4" t="n">
-        <v>570.9391874575869</v>
       </c>
     </row>
   </sheetData>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.57092900361168</v>
+        <v>18.57092900361167</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
-        <v>642.4520210231179</v>
+        <v>642.4520210231182</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>570.939187457587</v>
+        <v>570.9391874575871</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>570.939187457587</v>
+        <v>570.939187457585</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.57092900361168</v>
+        <v>18.57092900361167</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>570.939187457587</v>
+        <v>570.9391874575871</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -29176,7 +29176,7 @@
         <v>18.57092900361167</v>
       </c>
       <c r="V24" t="n">
-        <v>18.57092900361144</v>
+        <v>18.57092900361167</v>
       </c>
       <c r="W24" t="n">
         <v>18.57092900361167</v>
@@ -29890,7 +29890,7 @@
         <v>18.57092900361167</v>
       </c>
       <c r="W33" t="n">
-        <v>18.57092900361121</v>
+        <v>18.57092900361167</v>
       </c>
       <c r="X33" t="n">
         <v>18.57092900361167</v>
@@ -30304,7 +30304,7 @@
         <v>18.57092900361167</v>
       </c>
       <c r="C39" t="n">
-        <v>18.57092900361118</v>
+        <v>18.57092900361167</v>
       </c>
       <c r="D39" t="n">
         <v>18.57092900361167</v>
@@ -31530,7 +31530,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L8" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M8" t="n">
         <v>165.7299311340341</v>
@@ -31539,7 +31539,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O8" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P8" t="n">
         <v>135.7252782213693</v>
@@ -31554,7 +31554,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T8" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U8" t="n">
         <v>0.07550714794001816</v>
@@ -31624,7 +31624,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R9" t="n">
         <v>31.35420961992052</v>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H10" t="n">
         <v>3.764178316183975</v>
@@ -31691,7 +31691,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M10" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N10" t="n">
         <v>64.78774396352233</v>
@@ -31703,13 +31703,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R10" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S10" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T10" t="n">
         <v>1.808960949495364</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.526561041805473</v>
+        <v>3.526561041805474</v>
       </c>
       <c r="H11" t="n">
-        <v>36.11639326939031</v>
+        <v>36.11639326939032</v>
       </c>
       <c r="I11" t="n">
         <v>135.9577445642057</v>
       </c>
       <c r="J11" t="n">
-        <v>299.3124602219376</v>
+        <v>299.3124602219377</v>
       </c>
       <c r="K11" t="n">
-        <v>448.5917891215634</v>
+        <v>448.5917891215635</v>
       </c>
       <c r="L11" t="n">
-        <v>556.5177816047177</v>
+        <v>556.5177816047178</v>
       </c>
       <c r="M11" t="n">
-        <v>619.2332615319258</v>
+        <v>619.2332615319259</v>
       </c>
       <c r="N11" t="n">
-        <v>629.2531030919556</v>
+        <v>629.2531030919558</v>
       </c>
       <c r="O11" t="n">
-        <v>594.1858617325024</v>
+        <v>594.1858617325025</v>
       </c>
       <c r="P11" t="n">
-        <v>507.1238860129297</v>
+        <v>507.1238860129299</v>
       </c>
       <c r="Q11" t="n">
-        <v>380.8289187032711</v>
+        <v>380.8289187032712</v>
       </c>
       <c r="R11" t="n">
         <v>221.5253400423133</v>
       </c>
       <c r="S11" t="n">
-        <v>80.36150974014231</v>
+        <v>80.36150974014232</v>
       </c>
       <c r="T11" t="n">
         <v>15.43752096050347</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2821248833444378</v>
+        <v>0.2821248833444379</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.886876504584883</v>
       </c>
       <c r="H12" t="n">
-        <v>18.22325466270137</v>
+        <v>18.22325466270138</v>
       </c>
       <c r="I12" t="n">
-        <v>64.96482702189181</v>
+        <v>64.96482702189182</v>
       </c>
       <c r="J12" t="n">
         <v>178.2684508125569</v>
       </c>
       <c r="K12" t="n">
-        <v>304.689176619744</v>
+        <v>304.6891766197441</v>
       </c>
       <c r="L12" t="n">
-        <v>409.6921989450641</v>
+        <v>409.6921989450643</v>
       </c>
       <c r="M12" t="n">
-        <v>478.091472236266</v>
+        <v>478.0914722362662</v>
       </c>
       <c r="N12" t="n">
-        <v>490.7451309007849</v>
+        <v>490.7451309007851</v>
       </c>
       <c r="O12" t="n">
-        <v>448.9359199307725</v>
+        <v>448.9359199307726</v>
       </c>
       <c r="P12" t="n">
-        <v>360.3106546342835</v>
+        <v>360.3106546342836</v>
       </c>
       <c r="Q12" t="n">
-        <v>240.8581306554317</v>
+        <v>240.8581306554318</v>
       </c>
       <c r="R12" t="n">
         <v>117.1518587671211</v>
       </c>
       <c r="S12" t="n">
-        <v>35.04790349524988</v>
+        <v>35.04790349524989</v>
       </c>
       <c r="T12" t="n">
-        <v>7.605436437339941</v>
+        <v>7.605436437339943</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1241366121437423</v>
+        <v>0.1241366121437424</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.581893877154136</v>
+        <v>1.581893877154137</v>
       </c>
       <c r="H13" t="n">
         <v>14.06447465324315</v>
       </c>
       <c r="I13" t="n">
-        <v>47.5718631420535</v>
+        <v>47.57186314205352</v>
       </c>
       <c r="J13" t="n">
         <v>111.8398971147975</v>
@@ -31925,34 +31925,34 @@
         <v>183.7873068184533</v>
       </c>
       <c r="L13" t="n">
-        <v>235.1844769725341</v>
+        <v>235.1844769725342</v>
       </c>
       <c r="M13" t="n">
-        <v>247.9690556706252</v>
+        <v>247.9690556706253</v>
       </c>
       <c r="N13" t="n">
         <v>242.0729057648691</v>
       </c>
       <c r="O13" t="n">
-        <v>223.5935091090229</v>
+        <v>223.593509109023</v>
       </c>
       <c r="P13" t="n">
         <v>191.3228740150784</v>
       </c>
       <c r="Q13" t="n">
-        <v>132.4620409315159</v>
+        <v>132.462040931516</v>
       </c>
       <c r="R13" t="n">
-        <v>71.12770105822143</v>
+        <v>71.12770105822145</v>
       </c>
       <c r="S13" t="n">
-        <v>27.56809602276799</v>
+        <v>27.568096022768</v>
       </c>
       <c r="T13" t="n">
-        <v>6.759001111476763</v>
+        <v>6.759001111476765</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08628512057204391</v>
+        <v>0.08628512057204393</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.526561041805473</v>
+        <v>3.526561041805474</v>
       </c>
       <c r="H14" t="n">
-        <v>36.11639326939031</v>
+        <v>36.11639326939032</v>
       </c>
       <c r="I14" t="n">
         <v>135.9577445642057</v>
       </c>
       <c r="J14" t="n">
-        <v>299.3124602219376</v>
+        <v>299.3124602219377</v>
       </c>
       <c r="K14" t="n">
-        <v>448.5917891215634</v>
+        <v>448.5917891215635</v>
       </c>
       <c r="L14" t="n">
-        <v>556.5177816047177</v>
+        <v>556.5177816047178</v>
       </c>
       <c r="M14" t="n">
-        <v>619.2332615319258</v>
+        <v>619.2332615319259</v>
       </c>
       <c r="N14" t="n">
-        <v>629.2531030919556</v>
+        <v>629.2531030919558</v>
       </c>
       <c r="O14" t="n">
-        <v>594.1858617325024</v>
+        <v>594.1858617325025</v>
       </c>
       <c r="P14" t="n">
-        <v>507.1238860129297</v>
+        <v>507.1238860129299</v>
       </c>
       <c r="Q14" t="n">
-        <v>380.8289187032711</v>
+        <v>380.8289187032712</v>
       </c>
       <c r="R14" t="n">
         <v>221.5253400423133</v>
       </c>
       <c r="S14" t="n">
-        <v>80.36150974014231</v>
+        <v>80.36150974014232</v>
       </c>
       <c r="T14" t="n">
         <v>15.43752096050347</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2821248833444378</v>
+        <v>0.2821248833444379</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.886876504584883</v>
       </c>
       <c r="H15" t="n">
-        <v>18.22325466270137</v>
+        <v>18.22325466270138</v>
       </c>
       <c r="I15" t="n">
-        <v>64.96482702189181</v>
+        <v>64.96482702189182</v>
       </c>
       <c r="J15" t="n">
         <v>178.2684508125569</v>
       </c>
       <c r="K15" t="n">
-        <v>304.689176619744</v>
+        <v>304.6891766197441</v>
       </c>
       <c r="L15" t="n">
-        <v>409.6921989450641</v>
+        <v>409.6921989450643</v>
       </c>
       <c r="M15" t="n">
-        <v>478.091472236266</v>
+        <v>478.0914722362662</v>
       </c>
       <c r="N15" t="n">
-        <v>490.7451309007849</v>
+        <v>490.7451309007851</v>
       </c>
       <c r="O15" t="n">
-        <v>448.9359199307725</v>
+        <v>448.9359199307726</v>
       </c>
       <c r="P15" t="n">
-        <v>360.3106546342835</v>
+        <v>360.3106546342836</v>
       </c>
       <c r="Q15" t="n">
-        <v>240.8581306554317</v>
+        <v>240.8581306554318</v>
       </c>
       <c r="R15" t="n">
         <v>117.1518587671211</v>
       </c>
       <c r="S15" t="n">
-        <v>35.04790349524988</v>
+        <v>35.04790349524989</v>
       </c>
       <c r="T15" t="n">
-        <v>7.605436437339941</v>
+        <v>7.605436437339943</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1241366121437423</v>
+        <v>0.1241366121437424</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.581893877154136</v>
+        <v>1.581893877154137</v>
       </c>
       <c r="H16" t="n">
         <v>14.06447465324315</v>
       </c>
       <c r="I16" t="n">
-        <v>47.5718631420535</v>
+        <v>47.57186314205352</v>
       </c>
       <c r="J16" t="n">
         <v>111.8398971147975</v>
@@ -32162,34 +32162,34 @@
         <v>183.7873068184533</v>
       </c>
       <c r="L16" t="n">
-        <v>235.1844769725341</v>
+        <v>235.1844769725342</v>
       </c>
       <c r="M16" t="n">
-        <v>247.9690556706252</v>
+        <v>247.9690556706253</v>
       </c>
       <c r="N16" t="n">
         <v>242.0729057648691</v>
       </c>
       <c r="O16" t="n">
-        <v>223.5935091090229</v>
+        <v>223.593509109023</v>
       </c>
       <c r="P16" t="n">
         <v>191.3228740150784</v>
       </c>
       <c r="Q16" t="n">
-        <v>132.4620409315159</v>
+        <v>132.462040931516</v>
       </c>
       <c r="R16" t="n">
-        <v>71.12770105822143</v>
+        <v>71.12770105822145</v>
       </c>
       <c r="S16" t="n">
-        <v>27.56809602276799</v>
+        <v>27.568096022768</v>
       </c>
       <c r="T16" t="n">
-        <v>6.759001111476763</v>
+        <v>6.759001111476765</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08628512057204391</v>
+        <v>0.08628512057204393</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.526561041805473</v>
+        <v>3.526561041805474</v>
       </c>
       <c r="H17" t="n">
-        <v>36.11639326939031</v>
+        <v>36.11639326939032</v>
       </c>
       <c r="I17" t="n">
         <v>135.9577445642057</v>
       </c>
       <c r="J17" t="n">
-        <v>299.3124602219376</v>
+        <v>299.3124602219377</v>
       </c>
       <c r="K17" t="n">
-        <v>448.5917891215634</v>
+        <v>448.5917891215635</v>
       </c>
       <c r="L17" t="n">
-        <v>556.5177816047177</v>
+        <v>556.5177816047178</v>
       </c>
       <c r="M17" t="n">
-        <v>619.2332615319258</v>
+        <v>619.2332615319259</v>
       </c>
       <c r="N17" t="n">
-        <v>629.2531030919556</v>
+        <v>629.2531030919558</v>
       </c>
       <c r="O17" t="n">
-        <v>594.1858617325024</v>
+        <v>594.1858617325025</v>
       </c>
       <c r="P17" t="n">
-        <v>507.1238860129297</v>
+        <v>507.1238860129299</v>
       </c>
       <c r="Q17" t="n">
-        <v>380.8289187032711</v>
+        <v>380.8289187032712</v>
       </c>
       <c r="R17" t="n">
-        <v>221.525340042314</v>
+        <v>221.5253400423133</v>
       </c>
       <c r="S17" t="n">
-        <v>80.36150974014231</v>
+        <v>80.36150974014232</v>
       </c>
       <c r="T17" t="n">
         <v>15.43752096050347</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2821248833444378</v>
+        <v>0.2821248833444379</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.886876504584883</v>
       </c>
       <c r="H18" t="n">
-        <v>18.22325466270137</v>
+        <v>18.22325466270138</v>
       </c>
       <c r="I18" t="n">
-        <v>64.96482702189181</v>
+        <v>64.96482702189182</v>
       </c>
       <c r="J18" t="n">
         <v>178.2684508125569</v>
       </c>
       <c r="K18" t="n">
-        <v>304.689176619744</v>
+        <v>304.6891766197441</v>
       </c>
       <c r="L18" t="n">
-        <v>409.6921989450641</v>
+        <v>409.6921989450643</v>
       </c>
       <c r="M18" t="n">
-        <v>478.091472236266</v>
+        <v>478.0914722362662</v>
       </c>
       <c r="N18" t="n">
-        <v>490.7451309007849</v>
+        <v>490.7451309007851</v>
       </c>
       <c r="O18" t="n">
-        <v>448.9359199307725</v>
+        <v>448.9359199307726</v>
       </c>
       <c r="P18" t="n">
-        <v>360.3106546342835</v>
+        <v>360.3106546342836</v>
       </c>
       <c r="Q18" t="n">
-        <v>240.8581306554317</v>
+        <v>240.8581306554318</v>
       </c>
       <c r="R18" t="n">
         <v>117.1518587671211</v>
       </c>
       <c r="S18" t="n">
-        <v>35.04790349524988</v>
+        <v>35.04790349524989</v>
       </c>
       <c r="T18" t="n">
-        <v>7.605436437339941</v>
+        <v>7.605436437339943</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1241366121437423</v>
+        <v>0.1241366121437424</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.581893877154136</v>
+        <v>1.581893877154137</v>
       </c>
       <c r="H19" t="n">
         <v>14.06447465324315</v>
       </c>
       <c r="I19" t="n">
-        <v>47.5718631420535</v>
+        <v>47.57186314205352</v>
       </c>
       <c r="J19" t="n">
         <v>111.8398971147975</v>
@@ -32399,34 +32399,34 @@
         <v>183.7873068184533</v>
       </c>
       <c r="L19" t="n">
-        <v>235.1844769725341</v>
+        <v>235.1844769725342</v>
       </c>
       <c r="M19" t="n">
-        <v>247.9690556706252</v>
+        <v>247.9690556706253</v>
       </c>
       <c r="N19" t="n">
         <v>242.0729057648691</v>
       </c>
       <c r="O19" t="n">
-        <v>223.5935091090229</v>
+        <v>223.593509109023</v>
       </c>
       <c r="P19" t="n">
         <v>191.3228740150784</v>
       </c>
       <c r="Q19" t="n">
-        <v>132.4620409315159</v>
+        <v>132.462040931516</v>
       </c>
       <c r="R19" t="n">
-        <v>71.12770105822143</v>
+        <v>71.12770105822145</v>
       </c>
       <c r="S19" t="n">
-        <v>27.56809602276799</v>
+        <v>27.568096022768</v>
       </c>
       <c r="T19" t="n">
-        <v>6.759001111476763</v>
+        <v>6.759001111476765</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08628512057204391</v>
+        <v>0.08628512057204393</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.526561041805473</v>
+        <v>3.526561041805474</v>
       </c>
       <c r="H20" t="n">
-        <v>36.11639326939031</v>
+        <v>36.11639326939032</v>
       </c>
       <c r="I20" t="n">
         <v>135.9577445642057</v>
       </c>
       <c r="J20" t="n">
-        <v>299.3124602219376</v>
+        <v>299.3124602219377</v>
       </c>
       <c r="K20" t="n">
-        <v>448.5917891215634</v>
+        <v>448.5917891215635</v>
       </c>
       <c r="L20" t="n">
-        <v>556.5177816047177</v>
+        <v>556.5177816047178</v>
       </c>
       <c r="M20" t="n">
-        <v>619.2332615319258</v>
+        <v>619.2332615319259</v>
       </c>
       <c r="N20" t="n">
-        <v>629.2531030919556</v>
+        <v>629.2531030919558</v>
       </c>
       <c r="O20" t="n">
-        <v>594.1858617325024</v>
+        <v>594.1858617325025</v>
       </c>
       <c r="P20" t="n">
-        <v>507.1238860129297</v>
+        <v>507.1238860129299</v>
       </c>
       <c r="Q20" t="n">
-        <v>380.8289187032711</v>
+        <v>380.8289187032712</v>
       </c>
       <c r="R20" t="n">
         <v>221.5253400423133</v>
       </c>
       <c r="S20" t="n">
-        <v>80.36150974014231</v>
+        <v>80.36150974014232</v>
       </c>
       <c r="T20" t="n">
         <v>15.43752096050347</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2821248833444378</v>
+        <v>0.2821248833444379</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.886876504584883</v>
       </c>
       <c r="H21" t="n">
-        <v>18.22325466270137</v>
+        <v>18.22325466270138</v>
       </c>
       <c r="I21" t="n">
-        <v>64.96482702189181</v>
+        <v>64.96482702189182</v>
       </c>
       <c r="J21" t="n">
         <v>178.2684508125569</v>
       </c>
       <c r="K21" t="n">
-        <v>304.689176619744</v>
+        <v>304.6891766197441</v>
       </c>
       <c r="L21" t="n">
-        <v>409.6921989450641</v>
+        <v>409.6921989450643</v>
       </c>
       <c r="M21" t="n">
-        <v>478.091472236266</v>
+        <v>478.0914722362662</v>
       </c>
       <c r="N21" t="n">
-        <v>490.7451309007849</v>
+        <v>490.7451309007851</v>
       </c>
       <c r="O21" t="n">
-        <v>448.9359199307725</v>
+        <v>448.9359199307726</v>
       </c>
       <c r="P21" t="n">
-        <v>360.3106546342835</v>
+        <v>360.3106546342836</v>
       </c>
       <c r="Q21" t="n">
-        <v>240.8581306554317</v>
+        <v>240.8581306554318</v>
       </c>
       <c r="R21" t="n">
         <v>117.1518587671211</v>
       </c>
       <c r="S21" t="n">
-        <v>35.04790349524988</v>
+        <v>35.04790349524989</v>
       </c>
       <c r="T21" t="n">
-        <v>7.605436437339941</v>
+        <v>7.605436437339943</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1241366121437423</v>
+        <v>0.1241366121437424</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.581893877154136</v>
+        <v>1.581893877154137</v>
       </c>
       <c r="H22" t="n">
         <v>14.06447465324315</v>
       </c>
       <c r="I22" t="n">
-        <v>47.5718631420535</v>
+        <v>47.57186314205352</v>
       </c>
       <c r="J22" t="n">
         <v>111.8398971147975</v>
@@ -32636,34 +32636,34 @@
         <v>183.7873068184533</v>
       </c>
       <c r="L22" t="n">
-        <v>235.1844769725341</v>
+        <v>235.1844769725342</v>
       </c>
       <c r="M22" t="n">
-        <v>247.9690556706252</v>
+        <v>247.9690556706253</v>
       </c>
       <c r="N22" t="n">
         <v>242.0729057648691</v>
       </c>
       <c r="O22" t="n">
-        <v>223.5935091090229</v>
+        <v>223.593509109023</v>
       </c>
       <c r="P22" t="n">
         <v>191.3228740150784</v>
       </c>
       <c r="Q22" t="n">
-        <v>132.4620409315159</v>
+        <v>132.462040931516</v>
       </c>
       <c r="R22" t="n">
-        <v>71.12770105822143</v>
+        <v>71.12770105822145</v>
       </c>
       <c r="S22" t="n">
-        <v>27.56809602276799</v>
+        <v>27.568096022768</v>
       </c>
       <c r="T22" t="n">
-        <v>6.759001111476763</v>
+        <v>6.759001111476765</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08628512057204391</v>
+        <v>0.08628512057204393</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.526561041805473</v>
+        <v>3.526561041805474</v>
       </c>
       <c r="H23" t="n">
         <v>36.11639326939031</v>
@@ -32715,19 +32715,19 @@
         <v>448.5917891215634</v>
       </c>
       <c r="L23" t="n">
-        <v>556.5177816047177</v>
+        <v>556.5177816047178</v>
       </c>
       <c r="M23" t="n">
-        <v>619.2332615319258</v>
+        <v>619.2332615319259</v>
       </c>
       <c r="N23" t="n">
-        <v>629.2531030919556</v>
+        <v>629.2531030919557</v>
       </c>
       <c r="O23" t="n">
-        <v>594.1858617325024</v>
+        <v>594.1858617325025</v>
       </c>
       <c r="P23" t="n">
-        <v>507.1238860129297</v>
+        <v>507.1238860129298</v>
       </c>
       <c r="Q23" t="n">
         <v>380.8289187032711</v>
@@ -32742,7 +32742,7 @@
         <v>15.43752096050347</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2821248833444378</v>
+        <v>0.2821248833444379</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>18.22325466270137</v>
       </c>
       <c r="I24" t="n">
-        <v>64.96482702189181</v>
+        <v>64.96482702189182</v>
       </c>
       <c r="J24" t="n">
         <v>178.2684508125569</v>
@@ -32794,34 +32794,34 @@
         <v>304.689176619744</v>
       </c>
       <c r="L24" t="n">
-        <v>409.6921989450641</v>
+        <v>409.6921989450642</v>
       </c>
       <c r="M24" t="n">
-        <v>478.091472236266</v>
+        <v>478.0914722362661</v>
       </c>
       <c r="N24" t="n">
-        <v>490.7451309007849</v>
+        <v>490.745130900785</v>
       </c>
       <c r="O24" t="n">
-        <v>448.9359199307725</v>
+        <v>448.9359199307726</v>
       </c>
       <c r="P24" t="n">
         <v>360.3106546342835</v>
       </c>
       <c r="Q24" t="n">
-        <v>240.8581306554317</v>
+        <v>240.8581306554318</v>
       </c>
       <c r="R24" t="n">
         <v>117.1518587671211</v>
       </c>
       <c r="S24" t="n">
-        <v>35.04790349524988</v>
+        <v>35.04790349524989</v>
       </c>
       <c r="T24" t="n">
-        <v>7.605436437339941</v>
+        <v>7.605436437339942</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1241366121437423</v>
+        <v>0.1241366121437424</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.581893877154136</v>
+        <v>1.581893877154137</v>
       </c>
       <c r="H25" t="n">
         <v>14.06447465324315</v>
       </c>
       <c r="I25" t="n">
-        <v>47.5718631420535</v>
+        <v>47.57186314205351</v>
       </c>
       <c r="J25" t="n">
         <v>111.8398971147975</v>
@@ -32873,7 +32873,7 @@
         <v>183.7873068184533</v>
       </c>
       <c r="L25" t="n">
-        <v>235.1844769725341</v>
+        <v>235.1844769725342</v>
       </c>
       <c r="M25" t="n">
         <v>247.9690556706252</v>
@@ -32882,13 +32882,13 @@
         <v>242.0729057648691</v>
       </c>
       <c r="O25" t="n">
-        <v>223.5935091090229</v>
+        <v>223.593509109023</v>
       </c>
       <c r="P25" t="n">
         <v>191.3228740150784</v>
       </c>
       <c r="Q25" t="n">
-        <v>132.4620409315159</v>
+        <v>132.462040931516</v>
       </c>
       <c r="R25" t="n">
         <v>71.12770105822143</v>
@@ -32897,10 +32897,10 @@
         <v>27.56809602276799</v>
       </c>
       <c r="T25" t="n">
-        <v>6.759001111476763</v>
+        <v>6.759001111476764</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08628512057204391</v>
+        <v>0.08628512057204392</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.526561041805473</v>
+        <v>3.526561041805474</v>
       </c>
       <c r="H26" t="n">
         <v>36.11639326939031</v>
@@ -32952,19 +32952,19 @@
         <v>448.5917891215634</v>
       </c>
       <c r="L26" t="n">
-        <v>556.5177816047177</v>
+        <v>556.5177816047178</v>
       </c>
       <c r="M26" t="n">
-        <v>619.2332615319258</v>
+        <v>619.2332615319259</v>
       </c>
       <c r="N26" t="n">
-        <v>629.2531030919556</v>
+        <v>629.2531030919557</v>
       </c>
       <c r="O26" t="n">
-        <v>594.1858617325024</v>
+        <v>594.1858617325025</v>
       </c>
       <c r="P26" t="n">
-        <v>507.1238860129297</v>
+        <v>507.1238860129298</v>
       </c>
       <c r="Q26" t="n">
         <v>380.8289187032711</v>
@@ -32979,7 +32979,7 @@
         <v>15.43752096050347</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2821248833444378</v>
+        <v>0.2821248833444379</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>18.22325466270137</v>
       </c>
       <c r="I27" t="n">
-        <v>64.96482702189181</v>
+        <v>64.96482702189182</v>
       </c>
       <c r="J27" t="n">
         <v>178.2684508125569</v>
@@ -33031,34 +33031,34 @@
         <v>304.689176619744</v>
       </c>
       <c r="L27" t="n">
-        <v>409.6921989450641</v>
+        <v>409.6921989450642</v>
       </c>
       <c r="M27" t="n">
-        <v>478.091472236266</v>
+        <v>478.0914722362661</v>
       </c>
       <c r="N27" t="n">
-        <v>490.7451309007849</v>
+        <v>490.745130900785</v>
       </c>
       <c r="O27" t="n">
-        <v>448.9359199307725</v>
+        <v>448.9359199307726</v>
       </c>
       <c r="P27" t="n">
         <v>360.3106546342835</v>
       </c>
       <c r="Q27" t="n">
-        <v>240.8581306554317</v>
+        <v>240.8581306554318</v>
       </c>
       <c r="R27" t="n">
         <v>117.1518587671211</v>
       </c>
       <c r="S27" t="n">
-        <v>35.04790349524988</v>
+        <v>35.04790349524989</v>
       </c>
       <c r="T27" t="n">
-        <v>7.605436437339941</v>
+        <v>7.605436437339942</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1241366121437423</v>
+        <v>0.1241366121437424</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.581893877154136</v>
+        <v>1.581893877154137</v>
       </c>
       <c r="H28" t="n">
         <v>14.06447465324315</v>
       </c>
       <c r="I28" t="n">
-        <v>47.5718631420535</v>
+        <v>47.57186314205351</v>
       </c>
       <c r="J28" t="n">
         <v>111.8398971147975</v>
@@ -33110,7 +33110,7 @@
         <v>183.7873068184533</v>
       </c>
       <c r="L28" t="n">
-        <v>235.1844769725341</v>
+        <v>235.1844769725342</v>
       </c>
       <c r="M28" t="n">
         <v>247.9690556706252</v>
@@ -33119,13 +33119,13 @@
         <v>242.0729057648691</v>
       </c>
       <c r="O28" t="n">
-        <v>223.5935091090229</v>
+        <v>223.593509109023</v>
       </c>
       <c r="P28" t="n">
         <v>191.3228740150784</v>
       </c>
       <c r="Q28" t="n">
-        <v>132.4620409315159</v>
+        <v>132.462040931516</v>
       </c>
       <c r="R28" t="n">
         <v>71.12770105822143</v>
@@ -33134,10 +33134,10 @@
         <v>27.56809602276799</v>
       </c>
       <c r="T28" t="n">
-        <v>6.759001111476763</v>
+        <v>6.759001111476764</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08628512057204391</v>
+        <v>0.08628512057204392</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.526561041805473</v>
+        <v>3.526561041805474</v>
       </c>
       <c r="H29" t="n">
         <v>36.11639326939031</v>
@@ -33189,19 +33189,19 @@
         <v>448.5917891215634</v>
       </c>
       <c r="L29" t="n">
-        <v>556.5177816047177</v>
+        <v>556.5177816047178</v>
       </c>
       <c r="M29" t="n">
-        <v>619.2332615319258</v>
+        <v>619.2332615319259</v>
       </c>
       <c r="N29" t="n">
-        <v>629.2531030919556</v>
+        <v>629.2531030919557</v>
       </c>
       <c r="O29" t="n">
-        <v>594.1858617325024</v>
+        <v>594.1858617325025</v>
       </c>
       <c r="P29" t="n">
-        <v>507.1238860129297</v>
+        <v>507.1238860129298</v>
       </c>
       <c r="Q29" t="n">
         <v>380.8289187032711</v>
@@ -33216,7 +33216,7 @@
         <v>15.43752096050347</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2821248833444378</v>
+        <v>0.2821248833444379</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>18.22325466270137</v>
       </c>
       <c r="I30" t="n">
-        <v>64.96482702189181</v>
+        <v>64.96482702189182</v>
       </c>
       <c r="J30" t="n">
         <v>178.2684508125569</v>
@@ -33268,34 +33268,34 @@
         <v>304.689176619744</v>
       </c>
       <c r="L30" t="n">
-        <v>409.6921989450641</v>
+        <v>409.6921989450642</v>
       </c>
       <c r="M30" t="n">
-        <v>478.091472236266</v>
+        <v>478.0914722362661</v>
       </c>
       <c r="N30" t="n">
-        <v>490.7451309007849</v>
+        <v>490.745130900785</v>
       </c>
       <c r="O30" t="n">
-        <v>448.9359199307725</v>
+        <v>448.9359199307726</v>
       </c>
       <c r="P30" t="n">
         <v>360.3106546342835</v>
       </c>
       <c r="Q30" t="n">
-        <v>240.8581306554317</v>
+        <v>240.8581306554318</v>
       </c>
       <c r="R30" t="n">
         <v>117.1518587671211</v>
       </c>
       <c r="S30" t="n">
-        <v>35.04790349524988</v>
+        <v>35.04790349524989</v>
       </c>
       <c r="T30" t="n">
-        <v>7.605436437339941</v>
+        <v>7.605436437339942</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1241366121437423</v>
+        <v>0.1241366121437424</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.581893877154136</v>
+        <v>1.581893877154137</v>
       </c>
       <c r="H31" t="n">
         <v>14.06447465324315</v>
       </c>
       <c r="I31" t="n">
-        <v>47.5718631420535</v>
+        <v>47.57186314205351</v>
       </c>
       <c r="J31" t="n">
         <v>111.8398971147975</v>
@@ -33347,7 +33347,7 @@
         <v>183.7873068184533</v>
       </c>
       <c r="L31" t="n">
-        <v>235.1844769725341</v>
+        <v>235.1844769725342</v>
       </c>
       <c r="M31" t="n">
         <v>247.9690556706252</v>
@@ -33356,13 +33356,13 @@
         <v>242.0729057648691</v>
       </c>
       <c r="O31" t="n">
-        <v>223.5935091090229</v>
+        <v>223.593509109023</v>
       </c>
       <c r="P31" t="n">
         <v>191.3228740150784</v>
       </c>
       <c r="Q31" t="n">
-        <v>132.4620409315159</v>
+        <v>132.462040931516</v>
       </c>
       <c r="R31" t="n">
         <v>71.12770105822143</v>
@@ -33371,10 +33371,10 @@
         <v>27.56809602276799</v>
       </c>
       <c r="T31" t="n">
-        <v>6.759001111476763</v>
+        <v>6.759001111476764</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08628512057204391</v>
+        <v>0.08628512057204392</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.526561041805473</v>
+        <v>3.526561041805474</v>
       </c>
       <c r="H32" t="n">
         <v>36.11639326939031</v>
@@ -33426,19 +33426,19 @@
         <v>448.5917891215634</v>
       </c>
       <c r="L32" t="n">
-        <v>556.5177816047177</v>
+        <v>556.5177816047178</v>
       </c>
       <c r="M32" t="n">
-        <v>619.2332615319258</v>
+        <v>619.2332615319259</v>
       </c>
       <c r="N32" t="n">
-        <v>629.2531030919556</v>
+        <v>629.2531030919557</v>
       </c>
       <c r="O32" t="n">
-        <v>594.1858617325024</v>
+        <v>594.1858617325025</v>
       </c>
       <c r="P32" t="n">
-        <v>507.1238860129297</v>
+        <v>507.1238860129298</v>
       </c>
       <c r="Q32" t="n">
         <v>380.8289187032711</v>
@@ -33453,7 +33453,7 @@
         <v>15.43752096050347</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2821248833444378</v>
+        <v>0.2821248833444379</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>18.22325466270137</v>
       </c>
       <c r="I33" t="n">
-        <v>64.96482702189181</v>
+        <v>64.96482702189182</v>
       </c>
       <c r="J33" t="n">
         <v>178.2684508125569</v>
@@ -33505,34 +33505,34 @@
         <v>304.689176619744</v>
       </c>
       <c r="L33" t="n">
-        <v>409.6921989450641</v>
+        <v>409.6921989450642</v>
       </c>
       <c r="M33" t="n">
-        <v>478.091472236266</v>
+        <v>478.0914722362661</v>
       </c>
       <c r="N33" t="n">
-        <v>490.7451309007849</v>
+        <v>490.745130900785</v>
       </c>
       <c r="O33" t="n">
-        <v>448.9359199307725</v>
+        <v>448.9359199307726</v>
       </c>
       <c r="P33" t="n">
         <v>360.3106546342835</v>
       </c>
       <c r="Q33" t="n">
-        <v>240.8581306554317</v>
+        <v>240.8581306554318</v>
       </c>
       <c r="R33" t="n">
         <v>117.1518587671211</v>
       </c>
       <c r="S33" t="n">
-        <v>35.04790349524988</v>
+        <v>35.04790349524989</v>
       </c>
       <c r="T33" t="n">
-        <v>7.605436437339941</v>
+        <v>7.605436437339942</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1241366121437423</v>
+        <v>0.1241366121437424</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.581893877154136</v>
+        <v>1.581893877154137</v>
       </c>
       <c r="H34" t="n">
         <v>14.06447465324315</v>
       </c>
       <c r="I34" t="n">
-        <v>47.5718631420535</v>
+        <v>47.57186314205351</v>
       </c>
       <c r="J34" t="n">
         <v>111.8398971147975</v>
@@ -33584,7 +33584,7 @@
         <v>183.7873068184533</v>
       </c>
       <c r="L34" t="n">
-        <v>235.1844769725341</v>
+        <v>235.1844769725342</v>
       </c>
       <c r="M34" t="n">
         <v>247.9690556706252</v>
@@ -33593,13 +33593,13 @@
         <v>242.0729057648691</v>
       </c>
       <c r="O34" t="n">
-        <v>223.5935091090229</v>
+        <v>223.593509109023</v>
       </c>
       <c r="P34" t="n">
         <v>191.3228740150784</v>
       </c>
       <c r="Q34" t="n">
-        <v>132.4620409315159</v>
+        <v>132.462040931516</v>
       </c>
       <c r="R34" t="n">
         <v>71.12770105822143</v>
@@ -33608,10 +33608,10 @@
         <v>27.56809602276799</v>
       </c>
       <c r="T34" t="n">
-        <v>6.759001111476763</v>
+        <v>6.759001111476764</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08628512057204391</v>
+        <v>0.08628512057204392</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.526561041805473</v>
+        <v>3.526561041805474</v>
       </c>
       <c r="H35" t="n">
         <v>36.11639326939031</v>
@@ -33663,19 +33663,19 @@
         <v>448.5917891215634</v>
       </c>
       <c r="L35" t="n">
-        <v>556.5177816047177</v>
+        <v>556.5177816047178</v>
       </c>
       <c r="M35" t="n">
-        <v>619.2332615319258</v>
+        <v>619.2332615319259</v>
       </c>
       <c r="N35" t="n">
-        <v>629.2531030919556</v>
+        <v>629.2531030919557</v>
       </c>
       <c r="O35" t="n">
-        <v>594.1858617325024</v>
+        <v>594.1858617325025</v>
       </c>
       <c r="P35" t="n">
-        <v>507.1238860129297</v>
+        <v>507.1238860129298</v>
       </c>
       <c r="Q35" t="n">
         <v>380.8289187032711</v>
@@ -33690,7 +33690,7 @@
         <v>15.43752096050347</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2821248833444378</v>
+        <v>0.2821248833444379</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>18.22325466270137</v>
       </c>
       <c r="I36" t="n">
-        <v>64.96482702189181</v>
+        <v>64.96482702189182</v>
       </c>
       <c r="J36" t="n">
         <v>178.2684508125569</v>
@@ -33742,34 +33742,34 @@
         <v>304.689176619744</v>
       </c>
       <c r="L36" t="n">
-        <v>409.6921989450641</v>
+        <v>409.6921989450642</v>
       </c>
       <c r="M36" t="n">
-        <v>478.091472236266</v>
+        <v>478.0914722362661</v>
       </c>
       <c r="N36" t="n">
-        <v>490.7451309007849</v>
+        <v>490.745130900785</v>
       </c>
       <c r="O36" t="n">
-        <v>448.9359199307725</v>
+        <v>448.9359199307726</v>
       </c>
       <c r="P36" t="n">
         <v>360.3106546342835</v>
       </c>
       <c r="Q36" t="n">
-        <v>240.8581306554317</v>
+        <v>240.8581306554318</v>
       </c>
       <c r="R36" t="n">
         <v>117.1518587671211</v>
       </c>
       <c r="S36" t="n">
-        <v>35.04790349524988</v>
+        <v>35.04790349524989</v>
       </c>
       <c r="T36" t="n">
-        <v>7.605436437339941</v>
+        <v>7.605436437339942</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1241366121437423</v>
+        <v>0.1241366121437424</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.581893877154136</v>
+        <v>1.581893877154137</v>
       </c>
       <c r="H37" t="n">
         <v>14.06447465324315</v>
       </c>
       <c r="I37" t="n">
-        <v>47.5718631420535</v>
+        <v>47.57186314205351</v>
       </c>
       <c r="J37" t="n">
         <v>111.8398971147975</v>
@@ -33821,7 +33821,7 @@
         <v>183.7873068184533</v>
       </c>
       <c r="L37" t="n">
-        <v>235.1844769725341</v>
+        <v>235.1844769725342</v>
       </c>
       <c r="M37" t="n">
         <v>247.9690556706252</v>
@@ -33830,13 +33830,13 @@
         <v>242.0729057648691</v>
       </c>
       <c r="O37" t="n">
-        <v>223.5935091090229</v>
+        <v>223.593509109023</v>
       </c>
       <c r="P37" t="n">
         <v>191.3228740150784</v>
       </c>
       <c r="Q37" t="n">
-        <v>132.4620409315159</v>
+        <v>132.462040931516</v>
       </c>
       <c r="R37" t="n">
         <v>71.12770105822143</v>
@@ -33845,10 +33845,10 @@
         <v>27.56809602276799</v>
       </c>
       <c r="T37" t="n">
-        <v>6.759001111476763</v>
+        <v>6.759001111476764</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08628512057204391</v>
+        <v>0.08628512057204392</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.526561041805473</v>
+        <v>3.526561041805474</v>
       </c>
       <c r="H38" t="n">
         <v>36.11639326939031</v>
@@ -33900,19 +33900,19 @@
         <v>448.5917891215634</v>
       </c>
       <c r="L38" t="n">
-        <v>556.5177816047177</v>
+        <v>556.5177816047178</v>
       </c>
       <c r="M38" t="n">
-        <v>619.2332615319258</v>
+        <v>619.2332615319259</v>
       </c>
       <c r="N38" t="n">
-        <v>629.2531030919556</v>
+        <v>629.2531030919557</v>
       </c>
       <c r="O38" t="n">
-        <v>594.1858617325024</v>
+        <v>594.1858617325025</v>
       </c>
       <c r="P38" t="n">
-        <v>507.1238860129297</v>
+        <v>507.1238860129298</v>
       </c>
       <c r="Q38" t="n">
         <v>380.8289187032711</v>
@@ -33927,7 +33927,7 @@
         <v>15.43752096050347</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2821248833444378</v>
+        <v>0.2821248833444379</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>18.22325466270137</v>
       </c>
       <c r="I39" t="n">
-        <v>64.96482702189181</v>
+        <v>64.96482702189182</v>
       </c>
       <c r="J39" t="n">
         <v>178.2684508125569</v>
@@ -33979,34 +33979,34 @@
         <v>304.689176619744</v>
       </c>
       <c r="L39" t="n">
-        <v>409.6921989450641</v>
+        <v>409.6921989450642</v>
       </c>
       <c r="M39" t="n">
-        <v>478.091472236266</v>
+        <v>478.0914722362661</v>
       </c>
       <c r="N39" t="n">
-        <v>490.7451309007849</v>
+        <v>490.745130900785</v>
       </c>
       <c r="O39" t="n">
-        <v>448.9359199307725</v>
+        <v>448.9359199307726</v>
       </c>
       <c r="P39" t="n">
         <v>360.3106546342835</v>
       </c>
       <c r="Q39" t="n">
-        <v>240.8581306554317</v>
+        <v>240.8581306554318</v>
       </c>
       <c r="R39" t="n">
         <v>117.1518587671211</v>
       </c>
       <c r="S39" t="n">
-        <v>35.04790349524988</v>
+        <v>35.04790349524989</v>
       </c>
       <c r="T39" t="n">
-        <v>7.605436437339941</v>
+        <v>7.605436437339942</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1241366121437423</v>
+        <v>0.1241366121437424</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.581893877154136</v>
+        <v>1.581893877154137</v>
       </c>
       <c r="H40" t="n">
         <v>14.06447465324315</v>
       </c>
       <c r="I40" t="n">
-        <v>47.5718631420535</v>
+        <v>47.57186314205351</v>
       </c>
       <c r="J40" t="n">
         <v>111.8398971147975</v>
@@ -34058,7 +34058,7 @@
         <v>183.7873068184533</v>
       </c>
       <c r="L40" t="n">
-        <v>235.1844769725341</v>
+        <v>235.1844769725342</v>
       </c>
       <c r="M40" t="n">
         <v>247.9690556706252</v>
@@ -34067,13 +34067,13 @@
         <v>242.0729057648691</v>
       </c>
       <c r="O40" t="n">
-        <v>223.5935091090229</v>
+        <v>223.593509109023</v>
       </c>
       <c r="P40" t="n">
         <v>191.3228740150784</v>
       </c>
       <c r="Q40" t="n">
-        <v>132.4620409315159</v>
+        <v>132.462040931516</v>
       </c>
       <c r="R40" t="n">
         <v>71.12770105822143</v>
@@ -34082,10 +34082,10 @@
         <v>27.56809602276799</v>
       </c>
       <c r="T40" t="n">
-        <v>6.759001111476763</v>
+        <v>6.759001111476764</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08628512057204391</v>
+        <v>0.08628512057204392</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34149,13 +34149,13 @@
         <v>594.1858617325024</v>
       </c>
       <c r="P41" t="n">
-        <v>507.1238860129297</v>
+        <v>507.1238860129304</v>
       </c>
       <c r="Q41" t="n">
         <v>380.8289187032711</v>
       </c>
       <c r="R41" t="n">
-        <v>221.5253400423135</v>
+        <v>221.5253400423133</v>
       </c>
       <c r="S41" t="n">
         <v>80.36150974014231</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.2665556952513</v>
+        <v>118.2665556952514</v>
       </c>
       <c r="K11" t="n">
-        <v>228.5019380765828</v>
+        <v>228.5019380765829</v>
       </c>
       <c r="L11" t="n">
-        <v>320.7513666347305</v>
+        <v>320.7513666347306</v>
       </c>
       <c r="M11" t="n">
-        <v>388.8870283046531</v>
+        <v>388.8870283046532</v>
       </c>
       <c r="N11" t="n">
-        <v>399.8400394953647</v>
+        <v>399.8400394953649</v>
       </c>
       <c r="O11" t="n">
-        <v>364.0876503108157</v>
+        <v>364.0876503108158</v>
       </c>
       <c r="P11" t="n">
-        <v>275.8908902576601</v>
+        <v>275.8908902576603</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.5232288288216</v>
+        <v>158.5232288288217</v>
       </c>
       <c r="R11" t="n">
-        <v>5.939802228181151</v>
+        <v>5.939802228181208</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.43082414589017</v>
+        <v>177.5218594862991</v>
       </c>
       <c r="K12" t="n">
-        <v>166.847737645385</v>
+        <v>166.8477376453851</v>
       </c>
       <c r="L12" t="n">
-        <v>271.13781916519</v>
+        <v>271.1378191651901</v>
       </c>
       <c r="M12" t="n">
-        <v>335.9574383142477</v>
+        <v>335.9574383142479</v>
       </c>
       <c r="N12" t="n">
-        <v>359.4034188174517</v>
+        <v>359.4034188174518</v>
       </c>
       <c r="O12" t="n">
-        <v>306.3396754863281</v>
+        <v>306.3396754863282</v>
       </c>
       <c r="P12" t="n">
-        <v>544.7990158598905</v>
+        <v>332.526906611901</v>
       </c>
       <c r="Q12" t="n">
-        <v>224.7725703976784</v>
+        <v>310.9536443052593</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>37.05164600173634</v>
+        <v>37.05164600173637</v>
       </c>
       <c r="K13" t="n">
         <v>180.0887439961821</v>
       </c>
       <c r="L13" t="n">
-        <v>281.3454312364619</v>
+        <v>281.345431236462</v>
       </c>
       <c r="M13" t="n">
         <v>306.1238616360775</v>
       </c>
       <c r="N13" t="n">
-        <v>304.7760071477093</v>
+        <v>304.7760071477094</v>
       </c>
       <c r="O13" t="n">
-        <v>266.7495660266743</v>
+        <v>266.7495660266744</v>
       </c>
       <c r="P13" t="n">
-        <v>207.1723622835835</v>
+        <v>207.1723622835836</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.87092668343323</v>
+        <v>64.87092668343325</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.2665556952513</v>
+        <v>118.2665556952514</v>
       </c>
       <c r="K14" t="n">
-        <v>228.5019380765828</v>
+        <v>228.5019380765829</v>
       </c>
       <c r="L14" t="n">
-        <v>320.7513666347305</v>
+        <v>320.7513666347306</v>
       </c>
       <c r="M14" t="n">
-        <v>388.8870283046531</v>
+        <v>388.8870283046532</v>
       </c>
       <c r="N14" t="n">
-        <v>399.8400394953647</v>
+        <v>399.8400394953649</v>
       </c>
       <c r="O14" t="n">
-        <v>364.0876503108157</v>
+        <v>364.0876503108158</v>
       </c>
       <c r="P14" t="n">
-        <v>275.8908902576601</v>
+        <v>275.8908902576603</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.5232288288216</v>
+        <v>158.5232288288217</v>
       </c>
       <c r="R14" t="n">
-        <v>5.939802228181151</v>
+        <v>5.939802228181208</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>177.521859486299</v>
+        <v>177.5218594862991</v>
       </c>
       <c r="K15" t="n">
-        <v>166.847737645385</v>
+        <v>166.8477376453851</v>
       </c>
       <c r="L15" t="n">
-        <v>271.13781916519</v>
+        <v>377.3284785571379</v>
       </c>
       <c r="M15" t="n">
-        <v>335.9574383142477</v>
+        <v>335.9574383142479</v>
       </c>
       <c r="N15" t="n">
-        <v>359.4034188174517</v>
+        <v>359.4034188174518</v>
       </c>
       <c r="O15" t="n">
-        <v>306.3396754863281</v>
+        <v>306.3396754863282</v>
       </c>
       <c r="P15" t="n">
-        <v>542.6041943477499</v>
+        <v>226.3362472199533</v>
       </c>
       <c r="Q15" t="n">
-        <v>100.8763565694102</v>
+        <v>310.9536443052593</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>37.05164600173634</v>
+        <v>37.05164600173637</v>
       </c>
       <c r="K16" t="n">
         <v>180.0887439961821</v>
       </c>
       <c r="L16" t="n">
-        <v>281.3454312364619</v>
+        <v>281.345431236462</v>
       </c>
       <c r="M16" t="n">
         <v>306.1238616360775</v>
       </c>
       <c r="N16" t="n">
-        <v>304.7760071477093</v>
+        <v>304.7760071477094</v>
       </c>
       <c r="O16" t="n">
-        <v>266.7495660266743</v>
+        <v>266.7495660266744</v>
       </c>
       <c r="P16" t="n">
-        <v>207.1723622835835</v>
+        <v>207.1723622835836</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.87092668343323</v>
+        <v>64.87092668343325</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>118.2665556952513</v>
+        <v>118.2665556952514</v>
       </c>
       <c r="K17" t="n">
-        <v>228.5019380765828</v>
+        <v>228.5019380765829</v>
       </c>
       <c r="L17" t="n">
-        <v>320.7513666347305</v>
+        <v>320.7513666347306</v>
       </c>
       <c r="M17" t="n">
-        <v>388.8870283046531</v>
+        <v>388.8870283046532</v>
       </c>
       <c r="N17" t="n">
-        <v>399.8400394953647</v>
+        <v>399.8400394953649</v>
       </c>
       <c r="O17" t="n">
-        <v>364.0876503108157</v>
+        <v>364.0876503108158</v>
       </c>
       <c r="P17" t="n">
-        <v>275.8908902576601</v>
+        <v>275.8908902576603</v>
       </c>
       <c r="Q17" t="n">
-        <v>158.5232288288216</v>
+        <v>158.5232288288217</v>
       </c>
       <c r="R17" t="n">
-        <v>5.939802228181868</v>
+        <v>5.939802228181208</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>177.521859486299</v>
+        <v>175.3270379741589</v>
       </c>
       <c r="K18" t="n">
-        <v>256.0443724228542</v>
+        <v>166.8477376453851</v>
       </c>
       <c r="L18" t="n">
-        <v>271.13781916519</v>
+        <v>271.1378191651901</v>
       </c>
       <c r="M18" t="n">
-        <v>335.9574383142477</v>
+        <v>335.9574383142479</v>
       </c>
       <c r="N18" t="n">
-        <v>359.4034188174517</v>
+        <v>359.4034188174518</v>
       </c>
       <c r="O18" t="n">
-        <v>306.3396754863281</v>
+        <v>306.3396754863282</v>
       </c>
       <c r="P18" t="n">
-        <v>226.3362472199532</v>
+        <v>544.7990158598905</v>
       </c>
       <c r="Q18" t="n">
-        <v>310.9536443052593</v>
+        <v>100.8763565694103</v>
       </c>
       <c r="R18" t="n">
-        <v>16.99402461447796</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>37.05164600173634</v>
+        <v>37.05164600173637</v>
       </c>
       <c r="K19" t="n">
         <v>180.0887439961821</v>
       </c>
       <c r="L19" t="n">
-        <v>281.3454312364619</v>
+        <v>281.345431236462</v>
       </c>
       <c r="M19" t="n">
-        <v>306.1238616360774</v>
+        <v>306.1238616360775</v>
       </c>
       <c r="N19" t="n">
-        <v>304.7760071477093</v>
+        <v>304.7760071477094</v>
       </c>
       <c r="O19" t="n">
-        <v>266.7495660266743</v>
+        <v>266.7495660266744</v>
       </c>
       <c r="P19" t="n">
-        <v>207.1723622835835</v>
+        <v>207.1723622835836</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.87092668343321</v>
+        <v>64.87092668343325</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>118.2665556952513</v>
+        <v>118.2665556952514</v>
       </c>
       <c r="K20" t="n">
-        <v>228.5019380765828</v>
+        <v>228.5019380765829</v>
       </c>
       <c r="L20" t="n">
-        <v>320.7513666347305</v>
+        <v>320.7513666347306</v>
       </c>
       <c r="M20" t="n">
-        <v>388.8870283046531</v>
+        <v>388.8870283046532</v>
       </c>
       <c r="N20" t="n">
-        <v>399.8400394953647</v>
+        <v>399.8400394953649</v>
       </c>
       <c r="O20" t="n">
-        <v>364.0876503108157</v>
+        <v>364.0876503108158</v>
       </c>
       <c r="P20" t="n">
-        <v>275.8908902576601</v>
+        <v>275.8908902576603</v>
       </c>
       <c r="Q20" t="n">
-        <v>158.5232288288216</v>
+        <v>158.5232288288217</v>
       </c>
       <c r="R20" t="n">
-        <v>5.939802228181151</v>
+        <v>5.939802228181208</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>177.521859486299</v>
+        <v>175.3270379741589</v>
       </c>
       <c r="K21" t="n">
-        <v>431.3129746579636</v>
+        <v>166.8477376453851</v>
       </c>
       <c r="L21" t="n">
-        <v>305.9465046659298</v>
+        <v>271.1378191651901</v>
       </c>
       <c r="M21" t="n">
-        <v>335.9574383142477</v>
+        <v>335.9574383142479</v>
       </c>
       <c r="N21" t="n">
-        <v>359.4034188174517</v>
+        <v>359.4034188174518</v>
       </c>
       <c r="O21" t="n">
-        <v>306.3396754863281</v>
+        <v>306.3396754863282</v>
       </c>
       <c r="P21" t="n">
-        <v>226.3362472199532</v>
+        <v>544.7990158598905</v>
       </c>
       <c r="Q21" t="n">
-        <v>100.8763565694102</v>
+        <v>100.8763565694103</v>
       </c>
       <c r="R21" t="n">
-        <v>16.99402461447796</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>37.05164600173634</v>
+        <v>37.05164600173637</v>
       </c>
       <c r="K22" t="n">
         <v>180.0887439961821</v>
       </c>
       <c r="L22" t="n">
-        <v>281.3454312364619</v>
+        <v>281.345431236462</v>
       </c>
       <c r="M22" t="n">
-        <v>306.1238616360774</v>
+        <v>306.1238616360775</v>
       </c>
       <c r="N22" t="n">
-        <v>304.7760071477093</v>
+        <v>304.7760071477094</v>
       </c>
       <c r="O22" t="n">
-        <v>266.7495660266743</v>
+        <v>266.7495660266744</v>
       </c>
       <c r="P22" t="n">
-        <v>207.1723622835835</v>
+        <v>207.1723622835836</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.87092668343321</v>
+        <v>64.87092668343325</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>118.2665556952513</v>
       </c>
       <c r="K23" t="n">
-        <v>228.5019380765828</v>
+        <v>228.5019380765829</v>
       </c>
       <c r="L23" t="n">
-        <v>320.7513666347305</v>
+        <v>320.7513666347306</v>
       </c>
       <c r="M23" t="n">
-        <v>388.8870283046531</v>
+        <v>388.8870283046532</v>
       </c>
       <c r="N23" t="n">
-        <v>399.8400394953647</v>
+        <v>399.8400394953648</v>
       </c>
       <c r="O23" t="n">
-        <v>364.0876503108157</v>
+        <v>364.0876503108158</v>
       </c>
       <c r="P23" t="n">
-        <v>275.8908902576601</v>
+        <v>275.8908902576603</v>
       </c>
       <c r="Q23" t="n">
-        <v>158.5232288288216</v>
+        <v>158.5232288288217</v>
       </c>
       <c r="R23" t="n">
-        <v>5.939802228181151</v>
+        <v>5.939802228181179</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>177.521859486299</v>
+        <v>51.4308241458902</v>
       </c>
       <c r="K24" t="n">
-        <v>256.0443724228542</v>
+        <v>290.7439514736532</v>
       </c>
       <c r="L24" t="n">
         <v>271.13781916519</v>
       </c>
       <c r="M24" t="n">
-        <v>335.9574383142477</v>
+        <v>335.9574383142478</v>
       </c>
       <c r="N24" t="n">
         <v>359.4034188174517</v>
@@ -36454,13 +36454,13 @@
         <v>306.3396754863281</v>
       </c>
       <c r="P24" t="n">
-        <v>226.3362472199532</v>
+        <v>544.7990158598905</v>
       </c>
       <c r="Q24" t="n">
-        <v>310.9536443052593</v>
+        <v>100.8763565694102</v>
       </c>
       <c r="R24" t="n">
-        <v>16.99402461447796</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>37.05164600173634</v>
+        <v>37.05164600173636</v>
       </c>
       <c r="K25" t="n">
         <v>180.0887439961821</v>
       </c>
       <c r="L25" t="n">
-        <v>281.3454312364619</v>
+        <v>281.345431236462</v>
       </c>
       <c r="M25" t="n">
-        <v>306.1238616360774</v>
+        <v>306.1238616360775</v>
       </c>
       <c r="N25" t="n">
-        <v>304.7760071477093</v>
+        <v>304.7760071477094</v>
       </c>
       <c r="O25" t="n">
         <v>266.7495660266743</v>
       </c>
       <c r="P25" t="n">
-        <v>207.1723622835835</v>
+        <v>207.1723622835836</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.87092668343321</v>
+        <v>64.87092668343325</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>118.2665556952513</v>
       </c>
       <c r="K26" t="n">
-        <v>228.5019380765828</v>
+        <v>228.5019380765829</v>
       </c>
       <c r="L26" t="n">
-        <v>320.7513666347305</v>
+        <v>320.7513666347306</v>
       </c>
       <c r="M26" t="n">
-        <v>388.8870283046531</v>
+        <v>388.8870283046532</v>
       </c>
       <c r="N26" t="n">
-        <v>399.8400394953647</v>
+        <v>399.8400394953648</v>
       </c>
       <c r="O26" t="n">
-        <v>364.0876503108157</v>
+        <v>364.0876503108158</v>
       </c>
       <c r="P26" t="n">
-        <v>275.8908902576601</v>
+        <v>275.8908902576603</v>
       </c>
       <c r="Q26" t="n">
-        <v>158.5232288288216</v>
+        <v>158.5232288288217</v>
       </c>
       <c r="R26" t="n">
-        <v>5.939802228181868</v>
+        <v>5.939802228181179</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.43082414589017</v>
+        <v>177.521859486299</v>
       </c>
       <c r="K27" t="n">
-        <v>399.1294323777412</v>
+        <v>431.3129746579637</v>
       </c>
       <c r="L27" t="n">
         <v>271.13781916519</v>
       </c>
       <c r="M27" t="n">
-        <v>335.9574383142477</v>
+        <v>387.7601484294664</v>
       </c>
       <c r="N27" t="n">
         <v>359.4034188174517</v>
@@ -36691,10 +36691,10 @@
         <v>306.3396754863281</v>
       </c>
       <c r="P27" t="n">
-        <v>226.3362472199532</v>
+        <v>226.3362472199533</v>
       </c>
       <c r="Q27" t="n">
-        <v>310.9536443052593</v>
+        <v>100.8763565694102</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>37.05164600173634</v>
+        <v>37.05164600173636</v>
       </c>
       <c r="K28" t="n">
         <v>180.0887439961821</v>
       </c>
       <c r="L28" t="n">
-        <v>281.3454312364619</v>
+        <v>281.345431236462</v>
       </c>
       <c r="M28" t="n">
         <v>306.1238616360775</v>
       </c>
       <c r="N28" t="n">
-        <v>304.7760071477093</v>
+        <v>304.7760071477094</v>
       </c>
       <c r="O28" t="n">
         <v>266.7495660266743</v>
       </c>
       <c r="P28" t="n">
-        <v>207.1723622835835</v>
+        <v>207.1723622835836</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.87092668343323</v>
+        <v>64.87092668343325</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>118.2665556952513</v>
       </c>
       <c r="K29" t="n">
-        <v>228.5019380765828</v>
+        <v>228.5019380765829</v>
       </c>
       <c r="L29" t="n">
-        <v>320.7513666347305</v>
+        <v>320.7513666347306</v>
       </c>
       <c r="M29" t="n">
-        <v>388.8870283046531</v>
+        <v>388.8870283046532</v>
       </c>
       <c r="N29" t="n">
-        <v>399.8400394953647</v>
+        <v>399.8400394953648</v>
       </c>
       <c r="O29" t="n">
-        <v>364.0876503108157</v>
+        <v>364.0876503108158</v>
       </c>
       <c r="P29" t="n">
-        <v>275.8908902576601</v>
+        <v>275.8908902576603</v>
       </c>
       <c r="Q29" t="n">
-        <v>158.5232288288224</v>
+        <v>158.5232288288217</v>
       </c>
       <c r="R29" t="n">
-        <v>5.939802228181151</v>
+        <v>5.939802228181179</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>51.43082414589017</v>
+        <v>177.521859486299</v>
       </c>
       <c r="K30" t="n">
-        <v>431.3129746579636</v>
+        <v>273.0383970373322</v>
       </c>
       <c r="L30" t="n">
         <v>271.13781916519</v>
       </c>
       <c r="M30" t="n">
-        <v>335.9574383142477</v>
+        <v>335.9574383142478</v>
       </c>
       <c r="N30" t="n">
         <v>359.4034188174517</v>
@@ -36928,10 +36928,10 @@
         <v>306.3396754863281</v>
       </c>
       <c r="P30" t="n">
-        <v>226.3362472199532</v>
+        <v>226.3362472199533</v>
       </c>
       <c r="Q30" t="n">
-        <v>278.7701020250373</v>
+        <v>310.9536443052593</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>37.05164600173634</v>
+        <v>37.05164600173636</v>
       </c>
       <c r="K31" t="n">
         <v>180.0887439961821</v>
       </c>
       <c r="L31" t="n">
-        <v>281.3454312364619</v>
+        <v>281.345431236462</v>
       </c>
       <c r="M31" t="n">
         <v>306.1238616360775</v>
       </c>
       <c r="N31" t="n">
-        <v>304.7760071477093</v>
+        <v>304.7760071477094</v>
       </c>
       <c r="O31" t="n">
         <v>266.7495660266743</v>
       </c>
       <c r="P31" t="n">
-        <v>207.1723622835835</v>
+        <v>207.1723622835836</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.87092668343323</v>
+        <v>64.87092668343325</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>118.2665556952513</v>
       </c>
       <c r="K32" t="n">
-        <v>228.5019380765828</v>
+        <v>228.5019380765829</v>
       </c>
       <c r="L32" t="n">
-        <v>320.7513666347305</v>
+        <v>320.7513666347306</v>
       </c>
       <c r="M32" t="n">
-        <v>388.8870283046531</v>
+        <v>388.8870283046532</v>
       </c>
       <c r="N32" t="n">
-        <v>399.8400394953647</v>
+        <v>399.8400394953648</v>
       </c>
       <c r="O32" t="n">
-        <v>364.0876503108157</v>
+        <v>364.0876503108162</v>
       </c>
       <c r="P32" t="n">
-        <v>275.8908902576601</v>
+        <v>275.8908902576603</v>
       </c>
       <c r="Q32" t="n">
-        <v>158.5232288288216</v>
+        <v>158.5232288288217</v>
       </c>
       <c r="R32" t="n">
-        <v>5.939802228181151</v>
+        <v>5.939802228181179</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>177.521859486299</v>
+        <v>51.4308241458902</v>
       </c>
       <c r="K33" t="n">
-        <v>256.0443724228542</v>
+        <v>431.3129746579637</v>
       </c>
       <c r="L33" t="n">
         <v>271.13781916519</v>
       </c>
       <c r="M33" t="n">
-        <v>335.9574383142477</v>
+        <v>335.9574383142478</v>
       </c>
       <c r="N33" t="n">
         <v>359.4034188174517</v>
@@ -37165,13 +37165,13 @@
         <v>306.3396754863281</v>
       </c>
       <c r="P33" t="n">
-        <v>226.3362472199532</v>
+        <v>226.3362472199533</v>
       </c>
       <c r="Q33" t="n">
-        <v>310.9536443052593</v>
+        <v>278.7701020250368</v>
       </c>
       <c r="R33" t="n">
-        <v>16.99402461447796</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>37.05164600173634</v>
+        <v>37.05164600173636</v>
       </c>
       <c r="K34" t="n">
         <v>180.0887439961821</v>
       </c>
       <c r="L34" t="n">
-        <v>281.3454312364619</v>
+        <v>281.345431236462</v>
       </c>
       <c r="M34" t="n">
         <v>306.1238616360775</v>
       </c>
       <c r="N34" t="n">
-        <v>304.7760071477093</v>
+        <v>304.7760071477094</v>
       </c>
       <c r="O34" t="n">
         <v>266.7495660266743</v>
       </c>
       <c r="P34" t="n">
-        <v>207.1723622835835</v>
+        <v>207.1723622835836</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.87092668343323</v>
+        <v>64.87092668343324</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>118.2665556952513</v>
       </c>
       <c r="K35" t="n">
-        <v>228.5019380765828</v>
+        <v>228.5019380765829</v>
       </c>
       <c r="L35" t="n">
-        <v>320.7513666347305</v>
+        <v>320.7513666347306</v>
       </c>
       <c r="M35" t="n">
-        <v>388.8870283046531</v>
+        <v>388.8870283046532</v>
       </c>
       <c r="N35" t="n">
-        <v>399.8400394953647</v>
+        <v>399.8400394953648</v>
       </c>
       <c r="O35" t="n">
-        <v>364.0876503108157</v>
+        <v>364.0876503108158</v>
       </c>
       <c r="P35" t="n">
-        <v>275.8908902576601</v>
+        <v>275.8908902576603</v>
       </c>
       <c r="Q35" t="n">
-        <v>158.5232288288216</v>
+        <v>158.5232288288217</v>
       </c>
       <c r="R35" t="n">
-        <v>5.939802228181151</v>
+        <v>5.939802228181179</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>177.521859486299</v>
       </c>
       <c r="K36" t="n">
-        <v>431.3129746579636</v>
+        <v>256.044372422855</v>
       </c>
       <c r="L36" t="n">
         <v>271.13781916519</v>
       </c>
       <c r="M36" t="n">
-        <v>335.9574383142477</v>
+        <v>335.9574383142478</v>
       </c>
       <c r="N36" t="n">
         <v>359.4034188174517</v>
@@ -37402,13 +37402,13 @@
         <v>306.3396754863281</v>
       </c>
       <c r="P36" t="n">
-        <v>226.3362472199532</v>
+        <v>226.3362472199533</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.6850420701499</v>
+        <v>310.9536443052593</v>
       </c>
       <c r="R36" t="n">
-        <v>16.99402461447796</v>
+        <v>16.99402461447798</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>37.05164600173634</v>
+        <v>37.05164600173636</v>
       </c>
       <c r="K37" t="n">
         <v>180.0887439961821</v>
       </c>
       <c r="L37" t="n">
-        <v>281.3454312364619</v>
+        <v>281.345431236462</v>
       </c>
       <c r="M37" t="n">
         <v>306.1238616360775</v>
       </c>
       <c r="N37" t="n">
-        <v>304.7760071477093</v>
+        <v>304.7760071477094</v>
       </c>
       <c r="O37" t="n">
         <v>266.7495660266743</v>
       </c>
       <c r="P37" t="n">
-        <v>207.1723622835835</v>
+        <v>207.1723622835836</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.87092668343323</v>
+        <v>64.87092668343324</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>118.2665556952513</v>
       </c>
       <c r="K38" t="n">
-        <v>228.5019380765828</v>
+        <v>228.5019380765829</v>
       </c>
       <c r="L38" t="n">
-        <v>320.7513666347305</v>
+        <v>320.7513666347306</v>
       </c>
       <c r="M38" t="n">
-        <v>388.8870283046531</v>
+        <v>388.8870283046532</v>
       </c>
       <c r="N38" t="n">
-        <v>399.8400394953647</v>
+        <v>399.8400394953648</v>
       </c>
       <c r="O38" t="n">
-        <v>364.0876503108157</v>
+        <v>364.0876503108158</v>
       </c>
       <c r="P38" t="n">
-        <v>275.8908902576601</v>
+        <v>275.8908902576603</v>
       </c>
       <c r="Q38" t="n">
-        <v>158.5232288288216</v>
+        <v>158.5232288288217</v>
       </c>
       <c r="R38" t="n">
-        <v>5.939802228181151</v>
+        <v>5.939802228181179</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>177.521859486299</v>
       </c>
       <c r="K39" t="n">
-        <v>273.0383970373324</v>
+        <v>431.3129746579637</v>
       </c>
       <c r="L39" t="n">
         <v>271.13781916519</v>
       </c>
       <c r="M39" t="n">
-        <v>335.9574383142477</v>
+        <v>335.9574383142478</v>
       </c>
       <c r="N39" t="n">
-        <v>359.4034188174517</v>
+        <v>394.2121043181924</v>
       </c>
       <c r="O39" t="n">
         <v>306.3396754863281</v>
       </c>
       <c r="P39" t="n">
-        <v>226.3362472199532</v>
+        <v>226.3362472199533</v>
       </c>
       <c r="Q39" t="n">
-        <v>310.9536443052593</v>
+        <v>100.8763565694102</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>16.99402461447798</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>37.05164600173634</v>
+        <v>37.05164600173636</v>
       </c>
       <c r="K40" t="n">
         <v>180.0887439961821</v>
       </c>
       <c r="L40" t="n">
-        <v>281.3454312364619</v>
+        <v>281.345431236462</v>
       </c>
       <c r="M40" t="n">
         <v>306.1238616360775</v>
       </c>
       <c r="N40" t="n">
-        <v>304.7760071477093</v>
+        <v>304.7760071477094</v>
       </c>
       <c r="O40" t="n">
         <v>266.7495660266743</v>
       </c>
       <c r="P40" t="n">
-        <v>207.1723622835835</v>
+        <v>207.1723622835836</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.87092668343323</v>
+        <v>64.87092668343324</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37797,13 +37797,13 @@
         <v>364.0876503108157</v>
       </c>
       <c r="P41" t="n">
-        <v>275.8908902576601</v>
+        <v>275.8908902576608</v>
       </c>
       <c r="Q41" t="n">
         <v>158.5232288288216</v>
       </c>
       <c r="R41" t="n">
-        <v>5.939802228181409</v>
+        <v>5.939802228181151</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>177.521859486299</v>
+        <v>51.43082414589017</v>
       </c>
       <c r="K42" t="n">
-        <v>273.038397037332</v>
+        <v>399.1294323777412</v>
       </c>
       <c r="L42" t="n">
         <v>271.13781916519</v>
@@ -38098,7 +38098,7 @@
         <v>177.521859486299</v>
       </c>
       <c r="K45" t="n">
-        <v>256.0443724228538</v>
+        <v>431.3129746579636</v>
       </c>
       <c r="L45" t="n">
         <v>271.13781916519</v>
@@ -38110,16 +38110,16 @@
         <v>359.4034188174517</v>
       </c>
       <c r="O45" t="n">
-        <v>306.3396754863281</v>
+        <v>358.1423856015459</v>
       </c>
       <c r="P45" t="n">
         <v>226.3362472199532</v>
       </c>
       <c r="Q45" t="n">
-        <v>310.9536443052593</v>
+        <v>100.8763565694102</v>
       </c>
       <c r="R45" t="n">
-        <v>16.99402461447796</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
